--- a/4.単体テスト/単体テスト仕様書.xlsx
+++ b/4.単体テスト/単体テスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\4.単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA035DD-12DD-472B-8873-3FE25FCD195F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3275B4B3-F759-4B2A-A180-48DE096A3AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11235" yWindow="90" windowWidth="16515" windowHeight="15555" firstSheet="6" activeTab="7" xr2:uid="{83A60926-CE0D-49F5-B797-99F27CC48531}"/>
+    <workbookView xWindow="1860" yWindow="150" windowWidth="16515" windowHeight="15555" xr2:uid="{83A60926-CE0D-49F5-B797-99F27CC48531}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="490">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -6651,6 +6651,130 @@
   <si>
     <t>・単体テスト仕様書(メインメニュー)の編集
 ・単体テスト仕様書(顧客情報登録画面)の編集</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顧客情報一覧・表示画面</t>
+    <rPh sb="0" eb="6">
+      <t>コキャクジョウホウイチラン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒョウジガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・単体テスト仕様書(顧客情報消去画面)の編集</t>
+    <rPh sb="14" eb="16">
+      <t>ショウキョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顧客情報一覧・表示画面
+顧客情報更新画面</t>
+    <rPh sb="0" eb="6">
+      <t>コキャクジョウホウイチラン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ヒョウジガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・単体テスト仕様書(顧客情報一覧・表示画面)の編集
+・単体テスト仕様書(顧客情報更新画面)の編集</t>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顧客情報登録画面
+顧客情報更新画面
+顧客情報一覧・表示画面</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・単体テスト仕様書(顧客情報登録画面)の編集
+・単体テスト仕様書(顧客情報更新画面)の編集
+・単体テスト仕様書(顧客情報一覧・表示画面)の編集</t>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>顧客情報更新画面
+客情報消去画面</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キャク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウキョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・単体テスト仕様書(顧客情報更新画面)の編集
+・単体テスト仕様書(顧客情報消去画面)の編集</t>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ショウキョ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -7552,6 +7676,15 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7562,15 +7695,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7891,8 +8015,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8942,7 +9066,7 @@
       <c r="M29" s="38"/>
       <c r="N29" s="39"/>
       <c r="O29" s="43">
-        <v>44545</v>
+        <v>44579</v>
       </c>
       <c r="P29" s="38"/>
       <c r="Q29" s="38"/>
@@ -10297,7 +10421,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:R12"/>
+      <selection activeCell="I14" sqref="I14:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10623,18 +10747,26 @@
       <c r="Q11" s="80"/>
       <c r="R11" s="81"/>
     </row>
-    <row r="12" spans="1:18" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" s="16" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
         <v>8</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="75">
+        <v>44574</v>
+      </c>
       <c r="C12" s="76"/>
-      <c r="D12" s="83"/>
+      <c r="D12" s="77" t="s">
+        <v>28</v>
+      </c>
       <c r="E12" s="76"/>
-      <c r="F12" s="83"/>
+      <c r="F12" s="82" t="s">
+        <v>486</v>
+      </c>
       <c r="G12" s="78"/>
       <c r="H12" s="76"/>
-      <c r="I12" s="84"/>
+      <c r="I12" s="79" t="s">
+        <v>487</v>
+      </c>
       <c r="J12" s="80"/>
       <c r="K12" s="80"/>
       <c r="L12" s="80"/>
@@ -10645,18 +10777,26 @@
       <c r="Q12" s="80"/>
       <c r="R12" s="81"/>
     </row>
-    <row r="13" spans="1:18" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17">
         <v>9</v>
       </c>
-      <c r="B13" s="83"/>
+      <c r="B13" s="75">
+        <v>44575</v>
+      </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="83"/>
+      <c r="D13" s="77" t="s">
+        <v>28</v>
+      </c>
       <c r="E13" s="76"/>
-      <c r="F13" s="83"/>
+      <c r="F13" s="82" t="s">
+        <v>484</v>
+      </c>
       <c r="G13" s="78"/>
       <c r="H13" s="76"/>
-      <c r="I13" s="84"/>
+      <c r="I13" s="79" t="s">
+        <v>485</v>
+      </c>
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
       <c r="L13" s="80"/>
@@ -10667,18 +10807,26 @@
       <c r="Q13" s="80"/>
       <c r="R13" s="81"/>
     </row>
-    <row r="14" spans="1:18" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17">
         <v>10</v>
       </c>
-      <c r="B14" s="83"/>
+      <c r="B14" s="75">
+        <v>44578</v>
+      </c>
       <c r="C14" s="76"/>
-      <c r="D14" s="83"/>
+      <c r="D14" s="77" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="76"/>
-      <c r="F14" s="83"/>
+      <c r="F14" s="82" t="s">
+        <v>488</v>
+      </c>
       <c r="G14" s="78"/>
       <c r="H14" s="76"/>
-      <c r="I14" s="84"/>
+      <c r="I14" s="79" t="s">
+        <v>489</v>
+      </c>
       <c r="J14" s="80"/>
       <c r="K14" s="80"/>
       <c r="L14" s="80"/>
@@ -10693,14 +10841,22 @@
       <c r="A15" s="17">
         <v>11</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="75">
+        <v>44579</v>
+      </c>
       <c r="C15" s="76"/>
-      <c r="D15" s="83"/>
+      <c r="D15" s="77" t="s">
+        <v>28</v>
+      </c>
       <c r="E15" s="76"/>
-      <c r="F15" s="83"/>
+      <c r="F15" s="77" t="s">
+        <v>482</v>
+      </c>
       <c r="G15" s="78"/>
       <c r="H15" s="76"/>
-      <c r="I15" s="84"/>
+      <c r="I15" s="79" t="s">
+        <v>483</v>
+      </c>
       <c r="J15" s="80"/>
       <c r="K15" s="80"/>
       <c r="L15" s="80"/>
@@ -23310,12 +23466,12 @@
       <c r="AR4" s="102"/>
       <c r="AS4" s="102"/>
       <c r="AT4" s="102"/>
-      <c r="AU4" s="141" t="s">
+      <c r="AU4" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="141"/>
-      <c r="AW4" s="141"/>
-      <c r="AX4" s="141"/>
+      <c r="AV4" s="144"/>
+      <c r="AW4" s="144"/>
+      <c r="AX4" s="144"/>
       <c r="AY4" s="102" t="s">
         <v>16</v>
       </c>
@@ -23375,10 +23531,10 @@
       <c r="AR5" s="101"/>
       <c r="AS5" s="101"/>
       <c r="AT5" s="101"/>
-      <c r="AU5" s="141"/>
-      <c r="AV5" s="141"/>
-      <c r="AW5" s="141"/>
-      <c r="AX5" s="141"/>
+      <c r="AU5" s="144"/>
+      <c r="AV5" s="144"/>
+      <c r="AW5" s="144"/>
+      <c r="AX5" s="144"/>
       <c r="AY5" s="102"/>
       <c r="AZ5" s="102"/>
       <c r="BA5" s="102"/>
@@ -23440,12 +23596,12 @@
       <c r="AR6" s="85"/>
       <c r="AS6" s="85"/>
       <c r="AT6" s="85"/>
-      <c r="AU6" s="140">
+      <c r="AU6" s="143">
         <v>44574</v>
       </c>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="140"/>
-      <c r="AX6" s="140"/>
+      <c r="AV6" s="143"/>
+      <c r="AW6" s="143"/>
+      <c r="AX6" s="143"/>
       <c r="AY6" s="87" t="s">
         <v>475</v>
       </c>
@@ -23509,12 +23665,12 @@
       <c r="AR7" s="85"/>
       <c r="AS7" s="85"/>
       <c r="AT7" s="85"/>
-      <c r="AU7" s="140">
+      <c r="AU7" s="143">
         <v>44574</v>
       </c>
-      <c r="AV7" s="140"/>
-      <c r="AW7" s="140"/>
-      <c r="AX7" s="140"/>
+      <c r="AV7" s="143"/>
+      <c r="AW7" s="143"/>
+      <c r="AX7" s="143"/>
       <c r="AY7" s="87" t="s">
         <v>475</v>
       </c>
@@ -23580,12 +23736,12 @@
       <c r="AR8" s="85"/>
       <c r="AS8" s="85"/>
       <c r="AT8" s="85"/>
-      <c r="AU8" s="140">
+      <c r="AU8" s="143">
         <v>44574</v>
       </c>
-      <c r="AV8" s="140"/>
-      <c r="AW8" s="140"/>
-      <c r="AX8" s="140"/>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
+      <c r="AX8" s="143"/>
       <c r="AY8" s="87" t="s">
         <v>475</v>
       </c>
@@ -23649,12 +23805,12 @@
       <c r="AR9" s="85"/>
       <c r="AS9" s="85"/>
       <c r="AT9" s="85"/>
-      <c r="AU9" s="140">
+      <c r="AU9" s="143">
         <v>44574</v>
       </c>
-      <c r="AV9" s="140"/>
-      <c r="AW9" s="140"/>
-      <c r="AX9" s="140"/>
+      <c r="AV9" s="143"/>
+      <c r="AW9" s="143"/>
+      <c r="AX9" s="143"/>
       <c r="AY9" s="87" t="s">
         <v>475</v>
       </c>
@@ -23720,12 +23876,12 @@
       <c r="AR10" s="85"/>
       <c r="AS10" s="85"/>
       <c r="AT10" s="85"/>
-      <c r="AU10" s="140">
+      <c r="AU10" s="143">
         <v>44574</v>
       </c>
-      <c r="AV10" s="140"/>
-      <c r="AW10" s="140"/>
-      <c r="AX10" s="140"/>
+      <c r="AV10" s="143"/>
+      <c r="AW10" s="143"/>
+      <c r="AX10" s="143"/>
       <c r="AY10" s="87" t="s">
         <v>477</v>
       </c>
@@ -23789,12 +23945,12 @@
       <c r="AR11" s="85"/>
       <c r="AS11" s="85"/>
       <c r="AT11" s="85"/>
-      <c r="AU11" s="140">
+      <c r="AU11" s="143">
         <v>44574</v>
       </c>
-      <c r="AV11" s="140"/>
-      <c r="AW11" s="140"/>
-      <c r="AX11" s="140"/>
+      <c r="AV11" s="143"/>
+      <c r="AW11" s="143"/>
+      <c r="AX11" s="143"/>
       <c r="AY11" s="87" t="s">
         <v>477</v>
       </c>
@@ -23858,12 +24014,12 @@
       <c r="AR12" s="85"/>
       <c r="AS12" s="85"/>
       <c r="AT12" s="85"/>
-      <c r="AU12" s="140">
+      <c r="AU12" s="143">
         <v>44574</v>
       </c>
-      <c r="AV12" s="140"/>
-      <c r="AW12" s="140"/>
-      <c r="AX12" s="140"/>
+      <c r="AV12" s="143"/>
+      <c r="AW12" s="143"/>
+      <c r="AX12" s="143"/>
       <c r="AY12" s="87" t="s">
         <v>477</v>
       </c>
@@ -23929,12 +24085,12 @@
       <c r="AR13" s="85"/>
       <c r="AS13" s="85"/>
       <c r="AT13" s="85"/>
-      <c r="AU13" s="140">
+      <c r="AU13" s="143">
         <v>44574</v>
       </c>
-      <c r="AV13" s="140"/>
-      <c r="AW13" s="140"/>
-      <c r="AX13" s="140"/>
+      <c r="AV13" s="143"/>
+      <c r="AW13" s="143"/>
+      <c r="AX13" s="143"/>
       <c r="AY13" s="87" t="s">
         <v>475</v>
       </c>
@@ -23998,12 +24154,12 @@
       <c r="AR14" s="85"/>
       <c r="AS14" s="85"/>
       <c r="AT14" s="85"/>
-      <c r="AU14" s="140">
+      <c r="AU14" s="143">
         <v>44574</v>
       </c>
-      <c r="AV14" s="140"/>
-      <c r="AW14" s="140"/>
-      <c r="AX14" s="140"/>
+      <c r="AV14" s="143"/>
+      <c r="AW14" s="143"/>
+      <c r="AX14" s="143"/>
       <c r="AY14" s="87" t="s">
         <v>475</v>
       </c>
@@ -24069,12 +24225,12 @@
       <c r="AR15" s="85"/>
       <c r="AS15" s="85"/>
       <c r="AT15" s="85"/>
-      <c r="AU15" s="140">
+      <c r="AU15" s="143">
         <v>44574</v>
       </c>
-      <c r="AV15" s="140"/>
-      <c r="AW15" s="140"/>
-      <c r="AX15" s="140"/>
+      <c r="AV15" s="143"/>
+      <c r="AW15" s="143"/>
+      <c r="AX15" s="143"/>
       <c r="AY15" s="87" t="s">
         <v>475</v>
       </c>
@@ -24140,12 +24296,12 @@
       <c r="AR16" s="85"/>
       <c r="AS16" s="85"/>
       <c r="AT16" s="85"/>
-      <c r="AU16" s="140">
+      <c r="AU16" s="143">
         <v>44575</v>
       </c>
-      <c r="AV16" s="140"/>
-      <c r="AW16" s="140"/>
-      <c r="AX16" s="140"/>
+      <c r="AV16" s="143"/>
+      <c r="AW16" s="143"/>
+      <c r="AX16" s="143"/>
       <c r="AY16" s="87" t="s">
         <v>475</v>
       </c>
@@ -24207,12 +24363,12 @@
       <c r="AR17" s="85"/>
       <c r="AS17" s="85"/>
       <c r="AT17" s="85"/>
-      <c r="AU17" s="140">
+      <c r="AU17" s="143">
         <v>44575</v>
       </c>
-      <c r="AV17" s="140"/>
-      <c r="AW17" s="140"/>
-      <c r="AX17" s="140"/>
+      <c r="AV17" s="143"/>
+      <c r="AW17" s="143"/>
+      <c r="AX17" s="143"/>
       <c r="AY17" s="87" t="s">
         <v>475</v>
       </c>
@@ -24272,10 +24428,10 @@
       <c r="AR18" s="101"/>
       <c r="AS18" s="101"/>
       <c r="AT18" s="101"/>
-      <c r="AU18" s="141"/>
-      <c r="AV18" s="141"/>
-      <c r="AW18" s="141"/>
-      <c r="AX18" s="141"/>
+      <c r="AU18" s="144"/>
+      <c r="AV18" s="144"/>
+      <c r="AW18" s="144"/>
+      <c r="AX18" s="144"/>
       <c r="AY18" s="102"/>
       <c r="AZ18" s="102"/>
       <c r="BA18" s="102"/>
@@ -24337,12 +24493,12 @@
       <c r="AR19" s="85"/>
       <c r="AS19" s="85"/>
       <c r="AT19" s="85"/>
-      <c r="AU19" s="140">
+      <c r="AU19" s="143">
         <v>44575</v>
       </c>
-      <c r="AV19" s="140"/>
-      <c r="AW19" s="140"/>
-      <c r="AX19" s="140"/>
+      <c r="AV19" s="143"/>
+      <c r="AW19" s="143"/>
+      <c r="AX19" s="143"/>
       <c r="AY19" s="87" t="s">
         <v>475</v>
       </c>
@@ -24406,12 +24562,12 @@
       <c r="AR20" s="85"/>
       <c r="AS20" s="85"/>
       <c r="AT20" s="85"/>
-      <c r="AU20" s="140">
+      <c r="AU20" s="143">
         <v>44575</v>
       </c>
-      <c r="AV20" s="140"/>
-      <c r="AW20" s="140"/>
-      <c r="AX20" s="140"/>
+      <c r="AV20" s="143"/>
+      <c r="AW20" s="143"/>
+      <c r="AX20" s="143"/>
       <c r="AY20" s="87" t="s">
         <v>475</v>
       </c>
@@ -24475,12 +24631,12 @@
       <c r="AR21" s="85"/>
       <c r="AS21" s="85"/>
       <c r="AT21" s="85"/>
-      <c r="AU21" s="140">
+      <c r="AU21" s="143">
         <v>44575</v>
       </c>
-      <c r="AV21" s="140"/>
-      <c r="AW21" s="140"/>
-      <c r="AX21" s="140"/>
+      <c r="AV21" s="143"/>
+      <c r="AW21" s="143"/>
+      <c r="AX21" s="143"/>
       <c r="AY21" s="87" t="s">
         <v>475</v>
       </c>
@@ -24544,12 +24700,12 @@
       <c r="AR22" s="85"/>
       <c r="AS22" s="85"/>
       <c r="AT22" s="85"/>
-      <c r="AU22" s="140">
+      <c r="AU22" s="143">
         <v>44575</v>
       </c>
-      <c r="AV22" s="140"/>
-      <c r="AW22" s="140"/>
-      <c r="AX22" s="140"/>
+      <c r="AV22" s="143"/>
+      <c r="AW22" s="143"/>
+      <c r="AX22" s="143"/>
       <c r="AY22" s="87" t="s">
         <v>475</v>
       </c>
@@ -24613,12 +24769,12 @@
       <c r="AR23" s="85"/>
       <c r="AS23" s="85"/>
       <c r="AT23" s="85"/>
-      <c r="AU23" s="140">
+      <c r="AU23" s="143">
         <v>44575</v>
       </c>
-      <c r="AV23" s="140"/>
-      <c r="AW23" s="140"/>
-      <c r="AX23" s="140"/>
+      <c r="AV23" s="143"/>
+      <c r="AW23" s="143"/>
+      <c r="AX23" s="143"/>
       <c r="AY23" s="87" t="s">
         <v>475</v>
       </c>
@@ -24682,12 +24838,12 @@
       <c r="AR24" s="85"/>
       <c r="AS24" s="85"/>
       <c r="AT24" s="85"/>
-      <c r="AU24" s="140">
+      <c r="AU24" s="143">
         <v>44575</v>
       </c>
-      <c r="AV24" s="140"/>
-      <c r="AW24" s="140"/>
-      <c r="AX24" s="140"/>
+      <c r="AV24" s="143"/>
+      <c r="AW24" s="143"/>
+      <c r="AX24" s="143"/>
       <c r="AY24" s="87" t="s">
         <v>475</v>
       </c>
@@ -24751,12 +24907,12 @@
       <c r="AR25" s="85"/>
       <c r="AS25" s="85"/>
       <c r="AT25" s="85"/>
-      <c r="AU25" s="140">
+      <c r="AU25" s="143">
         <v>44575</v>
       </c>
-      <c r="AV25" s="140"/>
-      <c r="AW25" s="140"/>
-      <c r="AX25" s="140"/>
+      <c r="AV25" s="143"/>
+      <c r="AW25" s="143"/>
+      <c r="AX25" s="143"/>
       <c r="AY25" s="87" t="s">
         <v>475</v>
       </c>
@@ -24820,12 +24976,12 @@
       <c r="AR26" s="85"/>
       <c r="AS26" s="85"/>
       <c r="AT26" s="85"/>
-      <c r="AU26" s="140">
+      <c r="AU26" s="143">
         <v>44575</v>
       </c>
-      <c r="AV26" s="140"/>
-      <c r="AW26" s="140"/>
-      <c r="AX26" s="140"/>
+      <c r="AV26" s="143"/>
+      <c r="AW26" s="143"/>
+      <c r="AX26" s="143"/>
       <c r="AY26" s="87" t="s">
         <v>475</v>
       </c>
@@ -24889,12 +25045,12 @@
       <c r="AR27" s="85"/>
       <c r="AS27" s="85"/>
       <c r="AT27" s="85"/>
-      <c r="AU27" s="140">
+      <c r="AU27" s="143">
         <v>44575</v>
       </c>
-      <c r="AV27" s="140"/>
-      <c r="AW27" s="140"/>
-      <c r="AX27" s="140"/>
+      <c r="AV27" s="143"/>
+      <c r="AW27" s="143"/>
+      <c r="AX27" s="143"/>
       <c r="AY27" s="87" t="s">
         <v>475</v>
       </c>
@@ -24958,12 +25114,12 @@
       <c r="AR28" s="85"/>
       <c r="AS28" s="85"/>
       <c r="AT28" s="85"/>
-      <c r="AU28" s="140">
+      <c r="AU28" s="143">
         <v>44575</v>
       </c>
-      <c r="AV28" s="140"/>
-      <c r="AW28" s="140"/>
-      <c r="AX28" s="140"/>
+      <c r="AV28" s="143"/>
+      <c r="AW28" s="143"/>
+      <c r="AX28" s="143"/>
       <c r="AY28" s="87" t="s">
         <v>475</v>
       </c>
@@ -25027,12 +25183,12 @@
       <c r="AR29" s="85"/>
       <c r="AS29" s="85"/>
       <c r="AT29" s="85"/>
-      <c r="AU29" s="140">
+      <c r="AU29" s="143">
         <v>44575</v>
       </c>
-      <c r="AV29" s="140"/>
-      <c r="AW29" s="140"/>
-      <c r="AX29" s="140"/>
+      <c r="AV29" s="143"/>
+      <c r="AW29" s="143"/>
+      <c r="AX29" s="143"/>
       <c r="AY29" s="87" t="s">
         <v>475</v>
       </c>
@@ -25096,12 +25252,12 @@
       <c r="AR30" s="85"/>
       <c r="AS30" s="85"/>
       <c r="AT30" s="85"/>
-      <c r="AU30" s="140">
+      <c r="AU30" s="143">
         <v>44575</v>
       </c>
-      <c r="AV30" s="140"/>
-      <c r="AW30" s="140"/>
-      <c r="AX30" s="140"/>
+      <c r="AV30" s="143"/>
+      <c r="AW30" s="143"/>
+      <c r="AX30" s="143"/>
       <c r="AY30" s="87" t="s">
         <v>477</v>
       </c>
@@ -25165,12 +25321,12 @@
       <c r="AR31" s="85"/>
       <c r="AS31" s="85"/>
       <c r="AT31" s="85"/>
-      <c r="AU31" s="140">
+      <c r="AU31" s="143">
         <v>44575</v>
       </c>
-      <c r="AV31" s="140"/>
-      <c r="AW31" s="140"/>
-      <c r="AX31" s="140"/>
+      <c r="AV31" s="143"/>
+      <c r="AW31" s="143"/>
+      <c r="AX31" s="143"/>
       <c r="AY31" s="87" t="s">
         <v>477</v>
       </c>
@@ -25236,12 +25392,12 @@
       <c r="AR32" s="85"/>
       <c r="AS32" s="85"/>
       <c r="AT32" s="85"/>
-      <c r="AU32" s="140">
+      <c r="AU32" s="143">
         <v>44575</v>
       </c>
-      <c r="AV32" s="140"/>
-      <c r="AW32" s="140"/>
-      <c r="AX32" s="140"/>
+      <c r="AV32" s="143"/>
+      <c r="AW32" s="143"/>
+      <c r="AX32" s="143"/>
       <c r="AY32" s="87" t="s">
         <v>477</v>
       </c>
@@ -25305,12 +25461,12 @@
       <c r="AR33" s="85"/>
       <c r="AS33" s="85"/>
       <c r="AT33" s="85"/>
-      <c r="AU33" s="140">
+      <c r="AU33" s="143">
         <v>44575</v>
       </c>
-      <c r="AV33" s="140"/>
-      <c r="AW33" s="140"/>
-      <c r="AX33" s="140"/>
+      <c r="AV33" s="143"/>
+      <c r="AW33" s="143"/>
+      <c r="AX33" s="143"/>
       <c r="AY33" s="87" t="s">
         <v>477</v>
       </c>
@@ -25374,12 +25530,12 @@
       <c r="AR34" s="85"/>
       <c r="AS34" s="85"/>
       <c r="AT34" s="85"/>
-      <c r="AU34" s="140">
+      <c r="AU34" s="143">
         <v>44575</v>
       </c>
-      <c r="AV34" s="140"/>
-      <c r="AW34" s="140"/>
-      <c r="AX34" s="140"/>
+      <c r="AV34" s="143"/>
+      <c r="AW34" s="143"/>
+      <c r="AX34" s="143"/>
       <c r="AY34" s="87" t="s">
         <v>477</v>
       </c>
@@ -25443,12 +25599,12 @@
       <c r="AR35" s="85"/>
       <c r="AS35" s="85"/>
       <c r="AT35" s="85"/>
-      <c r="AU35" s="140">
+      <c r="AU35" s="143">
         <v>44575</v>
       </c>
-      <c r="AV35" s="140"/>
-      <c r="AW35" s="140"/>
-      <c r="AX35" s="140"/>
+      <c r="AV35" s="143"/>
+      <c r="AW35" s="143"/>
+      <c r="AX35" s="143"/>
       <c r="AY35" s="87" t="s">
         <v>477</v>
       </c>
@@ -25512,12 +25668,12 @@
       <c r="AR36" s="85"/>
       <c r="AS36" s="85"/>
       <c r="AT36" s="85"/>
-      <c r="AU36" s="140">
+      <c r="AU36" s="143">
         <v>44575</v>
       </c>
-      <c r="AV36" s="140"/>
-      <c r="AW36" s="140"/>
-      <c r="AX36" s="140"/>
+      <c r="AV36" s="143"/>
+      <c r="AW36" s="143"/>
+      <c r="AX36" s="143"/>
       <c r="AY36" s="87" t="s">
         <v>477</v>
       </c>
@@ -25581,12 +25737,12 @@
       <c r="AR37" s="85"/>
       <c r="AS37" s="85"/>
       <c r="AT37" s="85"/>
-      <c r="AU37" s="140">
+      <c r="AU37" s="143">
         <v>44575</v>
       </c>
-      <c r="AV37" s="140"/>
-      <c r="AW37" s="140"/>
-      <c r="AX37" s="140"/>
+      <c r="AV37" s="143"/>
+      <c r="AW37" s="143"/>
+      <c r="AX37" s="143"/>
       <c r="AY37" s="87" t="s">
         <v>477</v>
       </c>
@@ -25650,12 +25806,12 @@
       <c r="AR38" s="85"/>
       <c r="AS38" s="85"/>
       <c r="AT38" s="85"/>
-      <c r="AU38" s="140">
+      <c r="AU38" s="143">
         <v>44575</v>
       </c>
-      <c r="AV38" s="140"/>
-      <c r="AW38" s="140"/>
-      <c r="AX38" s="140"/>
+      <c r="AV38" s="143"/>
+      <c r="AW38" s="143"/>
+      <c r="AX38" s="143"/>
       <c r="AY38" s="87" t="s">
         <v>477</v>
       </c>
@@ -25719,12 +25875,12 @@
       <c r="AR39" s="85"/>
       <c r="AS39" s="85"/>
       <c r="AT39" s="85"/>
-      <c r="AU39" s="140">
+      <c r="AU39" s="143">
         <v>44575</v>
       </c>
-      <c r="AV39" s="140"/>
-      <c r="AW39" s="140"/>
-      <c r="AX39" s="140"/>
+      <c r="AV39" s="143"/>
+      <c r="AW39" s="143"/>
+      <c r="AX39" s="143"/>
       <c r="AY39" s="87" t="s">
         <v>477</v>
       </c>
@@ -25788,12 +25944,12 @@
       <c r="AR40" s="85"/>
       <c r="AS40" s="85"/>
       <c r="AT40" s="85"/>
-      <c r="AU40" s="140">
+      <c r="AU40" s="143">
         <v>44575</v>
       </c>
-      <c r="AV40" s="140"/>
-      <c r="AW40" s="140"/>
-      <c r="AX40" s="140"/>
+      <c r="AV40" s="143"/>
+      <c r="AW40" s="143"/>
+      <c r="AX40" s="143"/>
       <c r="AY40" s="87" t="s">
         <v>477</v>
       </c>
@@ -25857,12 +26013,12 @@
       <c r="AR41" s="85"/>
       <c r="AS41" s="85"/>
       <c r="AT41" s="85"/>
-      <c r="AU41" s="140">
+      <c r="AU41" s="143">
         <v>44575</v>
       </c>
-      <c r="AV41" s="140"/>
-      <c r="AW41" s="140"/>
-      <c r="AX41" s="140"/>
+      <c r="AV41" s="143"/>
+      <c r="AW41" s="143"/>
+      <c r="AX41" s="143"/>
       <c r="AY41" s="87" t="s">
         <v>477</v>
       </c>
@@ -25926,12 +26082,12 @@
       <c r="AR42" s="85"/>
       <c r="AS42" s="85"/>
       <c r="AT42" s="85"/>
-      <c r="AU42" s="140">
+      <c r="AU42" s="143">
         <v>44575</v>
       </c>
-      <c r="AV42" s="140"/>
-      <c r="AW42" s="140"/>
-      <c r="AX42" s="140"/>
+      <c r="AV42" s="143"/>
+      <c r="AW42" s="143"/>
+      <c r="AX42" s="143"/>
       <c r="AY42" s="87" t="s">
         <v>477</v>
       </c>
@@ -25995,12 +26151,12 @@
       <c r="AR43" s="85"/>
       <c r="AS43" s="85"/>
       <c r="AT43" s="85"/>
-      <c r="AU43" s="140">
+      <c r="AU43" s="143">
         <v>44575</v>
       </c>
-      <c r="AV43" s="140"/>
-      <c r="AW43" s="140"/>
-      <c r="AX43" s="140"/>
+      <c r="AV43" s="143"/>
+      <c r="AW43" s="143"/>
+      <c r="AX43" s="143"/>
       <c r="AY43" s="87" t="s">
         <v>477</v>
       </c>
@@ -26064,12 +26220,12 @@
       <c r="AR44" s="85"/>
       <c r="AS44" s="85"/>
       <c r="AT44" s="85"/>
-      <c r="AU44" s="140">
+      <c r="AU44" s="143">
         <v>44575</v>
       </c>
-      <c r="AV44" s="140"/>
-      <c r="AW44" s="140"/>
-      <c r="AX44" s="140"/>
+      <c r="AV44" s="143"/>
+      <c r="AW44" s="143"/>
+      <c r="AX44" s="143"/>
       <c r="AY44" s="87" t="s">
         <v>477</v>
       </c>
@@ -26129,10 +26285,10 @@
       <c r="AR45" s="101"/>
       <c r="AS45" s="101"/>
       <c r="AT45" s="101"/>
-      <c r="AU45" s="141"/>
-      <c r="AV45" s="141"/>
-      <c r="AW45" s="141"/>
-      <c r="AX45" s="141"/>
+      <c r="AU45" s="144"/>
+      <c r="AV45" s="144"/>
+      <c r="AW45" s="144"/>
+      <c r="AX45" s="144"/>
       <c r="AY45" s="102"/>
       <c r="AZ45" s="102"/>
       <c r="BA45" s="102"/>
@@ -26194,12 +26350,12 @@
       <c r="AR46" s="85"/>
       <c r="AS46" s="85"/>
       <c r="AT46" s="85"/>
-      <c r="AU46" s="140">
+      <c r="AU46" s="143">
         <v>44575</v>
       </c>
-      <c r="AV46" s="140"/>
-      <c r="AW46" s="140"/>
-      <c r="AX46" s="140"/>
+      <c r="AV46" s="143"/>
+      <c r="AW46" s="143"/>
+      <c r="AX46" s="143"/>
       <c r="AY46" s="87" t="s">
         <v>475</v>
       </c>
@@ -26263,12 +26419,12 @@
       <c r="AR47" s="85"/>
       <c r="AS47" s="85"/>
       <c r="AT47" s="85"/>
-      <c r="AU47" s="140">
+      <c r="AU47" s="143">
         <v>44575</v>
       </c>
-      <c r="AV47" s="140"/>
-      <c r="AW47" s="140"/>
-      <c r="AX47" s="140"/>
+      <c r="AV47" s="143"/>
+      <c r="AW47" s="143"/>
+      <c r="AX47" s="143"/>
       <c r="AY47" s="87" t="s">
         <v>475</v>
       </c>
@@ -26283,7 +26439,7 @@
       <c r="A48" s="106"/>
       <c r="B48" s="107"/>
       <c r="C48" s="108"/>
-      <c r="D48" s="142" t="s">
+      <c r="D48" s="145" t="s">
         <v>242</v>
       </c>
       <c r="E48" s="104"/>
@@ -26328,10 +26484,10 @@
       <c r="AR48" s="101"/>
       <c r="AS48" s="101"/>
       <c r="AT48" s="101"/>
-      <c r="AU48" s="141"/>
-      <c r="AV48" s="141"/>
-      <c r="AW48" s="141"/>
-      <c r="AX48" s="141"/>
+      <c r="AU48" s="144"/>
+      <c r="AV48" s="144"/>
+      <c r="AW48" s="144"/>
+      <c r="AX48" s="144"/>
       <c r="AY48" s="102"/>
       <c r="AZ48" s="102"/>
       <c r="BA48" s="102"/>
@@ -26393,12 +26549,12 @@
       <c r="AR49" s="85"/>
       <c r="AS49" s="85"/>
       <c r="AT49" s="85"/>
-      <c r="AU49" s="140">
+      <c r="AU49" s="143">
         <v>44575</v>
       </c>
-      <c r="AV49" s="140"/>
-      <c r="AW49" s="140"/>
-      <c r="AX49" s="140"/>
+      <c r="AV49" s="143"/>
+      <c r="AW49" s="143"/>
+      <c r="AX49" s="143"/>
       <c r="AY49" s="87" t="s">
         <v>475</v>
       </c>
@@ -26464,12 +26620,12 @@
       <c r="AR50" s="85"/>
       <c r="AS50" s="85"/>
       <c r="AT50" s="85"/>
-      <c r="AU50" s="140">
+      <c r="AU50" s="143">
         <v>44575</v>
       </c>
-      <c r="AV50" s="140"/>
-      <c r="AW50" s="140"/>
-      <c r="AX50" s="140"/>
+      <c r="AV50" s="143"/>
+      <c r="AW50" s="143"/>
+      <c r="AX50" s="143"/>
       <c r="AY50" s="87" t="s">
         <v>477</v>
       </c>
@@ -26529,10 +26685,10 @@
       <c r="AR51" s="101"/>
       <c r="AS51" s="101"/>
       <c r="AT51" s="101"/>
-      <c r="AU51" s="141"/>
-      <c r="AV51" s="141"/>
-      <c r="AW51" s="141"/>
-      <c r="AX51" s="141"/>
+      <c r="AU51" s="144"/>
+      <c r="AV51" s="144"/>
+      <c r="AW51" s="144"/>
+      <c r="AX51" s="144"/>
       <c r="AY51" s="102"/>
       <c r="AZ51" s="102"/>
       <c r="BA51" s="102"/>
@@ -26594,12 +26750,12 @@
       <c r="AR52" s="85"/>
       <c r="AS52" s="85"/>
       <c r="AT52" s="85"/>
-      <c r="AU52" s="140">
+      <c r="AU52" s="143">
         <v>44578</v>
       </c>
-      <c r="AV52" s="140"/>
-      <c r="AW52" s="140"/>
-      <c r="AX52" s="140"/>
+      <c r="AV52" s="143"/>
+      <c r="AW52" s="143"/>
+      <c r="AX52" s="143"/>
       <c r="AY52" s="87" t="s">
         <v>475</v>
       </c>
@@ -26665,10 +26821,10 @@
       <c r="AR53" s="97"/>
       <c r="AS53" s="97"/>
       <c r="AT53" s="97"/>
-      <c r="AU53" s="144"/>
-      <c r="AV53" s="145"/>
-      <c r="AW53" s="145"/>
-      <c r="AX53" s="146"/>
+      <c r="AU53" s="140"/>
+      <c r="AV53" s="141"/>
+      <c r="AW53" s="141"/>
+      <c r="AX53" s="142"/>
       <c r="AY53" s="88"/>
       <c r="AZ53" s="90"/>
       <c r="BA53" s="88"/>
@@ -26728,12 +26884,12 @@
       <c r="AR54" s="85"/>
       <c r="AS54" s="85"/>
       <c r="AT54" s="85"/>
-      <c r="AU54" s="140">
+      <c r="AU54" s="143">
         <v>44578</v>
       </c>
-      <c r="AV54" s="140"/>
-      <c r="AW54" s="140"/>
-      <c r="AX54" s="140"/>
+      <c r="AV54" s="143"/>
+      <c r="AW54" s="143"/>
+      <c r="AX54" s="143"/>
       <c r="AY54" s="87" t="s">
         <v>477</v>
       </c>
@@ -26797,10 +26953,10 @@
       <c r="AR55" s="97"/>
       <c r="AS55" s="97"/>
       <c r="AT55" s="97"/>
-      <c r="AU55" s="140"/>
-      <c r="AV55" s="140"/>
-      <c r="AW55" s="140"/>
-      <c r="AX55" s="140"/>
+      <c r="AU55" s="143"/>
+      <c r="AV55" s="143"/>
+      <c r="AW55" s="143"/>
+      <c r="AX55" s="143"/>
       <c r="AY55" s="87"/>
       <c r="AZ55" s="87"/>
       <c r="BA55" s="87"/>
@@ -26862,10 +27018,10 @@
       <c r="AR56" s="97"/>
       <c r="AS56" s="97"/>
       <c r="AT56" s="97"/>
-      <c r="AU56" s="140"/>
-      <c r="AV56" s="140"/>
-      <c r="AW56" s="140"/>
-      <c r="AX56" s="140"/>
+      <c r="AU56" s="143"/>
+      <c r="AV56" s="143"/>
+      <c r="AW56" s="143"/>
+      <c r="AX56" s="143"/>
       <c r="AY56" s="87"/>
       <c r="AZ56" s="87"/>
       <c r="BA56" s="87"/>
@@ -26925,12 +27081,12 @@
       <c r="AR57" s="85"/>
       <c r="AS57" s="85"/>
       <c r="AT57" s="85"/>
-      <c r="AU57" s="140">
+      <c r="AU57" s="143">
         <v>44578</v>
       </c>
-      <c r="AV57" s="140"/>
-      <c r="AW57" s="140"/>
-      <c r="AX57" s="140"/>
+      <c r="AV57" s="143"/>
+      <c r="AW57" s="143"/>
+      <c r="AX57" s="143"/>
       <c r="AY57" s="87" t="s">
         <v>475</v>
       </c>
@@ -26994,12 +27150,12 @@
       <c r="AR58" s="85"/>
       <c r="AS58" s="85"/>
       <c r="AT58" s="85"/>
-      <c r="AU58" s="140">
+      <c r="AU58" s="143">
         <v>44578</v>
       </c>
-      <c r="AV58" s="140"/>
-      <c r="AW58" s="140"/>
-      <c r="AX58" s="140"/>
+      <c r="AV58" s="143"/>
+      <c r="AW58" s="143"/>
+      <c r="AX58" s="143"/>
       <c r="AY58" s="87" t="s">
         <v>475</v>
       </c>
@@ -27063,10 +27219,10 @@
       <c r="AR59" s="97"/>
       <c r="AS59" s="97"/>
       <c r="AT59" s="97"/>
-      <c r="AU59" s="140"/>
-      <c r="AV59" s="140"/>
-      <c r="AW59" s="140"/>
-      <c r="AX59" s="140"/>
+      <c r="AU59" s="143"/>
+      <c r="AV59" s="143"/>
+      <c r="AW59" s="143"/>
+      <c r="AX59" s="143"/>
       <c r="AY59" s="87"/>
       <c r="AZ59" s="87"/>
       <c r="BA59" s="87"/>
@@ -27128,12 +27284,12 @@
       <c r="AR60" s="85"/>
       <c r="AS60" s="85"/>
       <c r="AT60" s="85"/>
-      <c r="AU60" s="140">
+      <c r="AU60" s="143">
         <v>44578</v>
       </c>
-      <c r="AV60" s="140"/>
-      <c r="AW60" s="140"/>
-      <c r="AX60" s="140"/>
+      <c r="AV60" s="143"/>
+      <c r="AW60" s="143"/>
+      <c r="AX60" s="143"/>
       <c r="AY60" s="87" t="s">
         <v>475</v>
       </c>
@@ -27199,12 +27355,12 @@
       <c r="AR61" s="85"/>
       <c r="AS61" s="85"/>
       <c r="AT61" s="85"/>
-      <c r="AU61" s="140">
+      <c r="AU61" s="143">
         <v>44578</v>
       </c>
-      <c r="AV61" s="140"/>
-      <c r="AW61" s="140"/>
-      <c r="AX61" s="140"/>
+      <c r="AV61" s="143"/>
+      <c r="AW61" s="143"/>
+      <c r="AX61" s="143"/>
       <c r="AY61" s="87" t="s">
         <v>475</v>
       </c>
@@ -27268,12 +27424,12 @@
       <c r="AR62" s="85"/>
       <c r="AS62" s="85"/>
       <c r="AT62" s="85"/>
-      <c r="AU62" s="140">
+      <c r="AU62" s="143">
         <v>44578</v>
       </c>
-      <c r="AV62" s="140"/>
-      <c r="AW62" s="140"/>
-      <c r="AX62" s="140"/>
+      <c r="AV62" s="143"/>
+      <c r="AW62" s="143"/>
+      <c r="AX62" s="143"/>
       <c r="AY62" s="87" t="s">
         <v>475</v>
       </c>
@@ -27339,12 +27495,12 @@
       <c r="AR63" s="85"/>
       <c r="AS63" s="85"/>
       <c r="AT63" s="85"/>
-      <c r="AU63" s="140">
+      <c r="AU63" s="143">
         <v>44578</v>
       </c>
-      <c r="AV63" s="140"/>
-      <c r="AW63" s="140"/>
-      <c r="AX63" s="140"/>
+      <c r="AV63" s="143"/>
+      <c r="AW63" s="143"/>
+      <c r="AX63" s="143"/>
       <c r="AY63" s="87" t="s">
         <v>475</v>
       </c>
@@ -27410,12 +27566,12 @@
       <c r="AR64" s="85"/>
       <c r="AS64" s="85"/>
       <c r="AT64" s="85"/>
-      <c r="AU64" s="140">
+      <c r="AU64" s="143">
         <v>44578</v>
       </c>
-      <c r="AV64" s="140"/>
-      <c r="AW64" s="140"/>
-      <c r="AX64" s="140"/>
+      <c r="AV64" s="143"/>
+      <c r="AW64" s="143"/>
+      <c r="AX64" s="143"/>
       <c r="AY64" s="87" t="s">
         <v>475</v>
       </c>
@@ -27481,12 +27637,12 @@
       <c r="AR65" s="85"/>
       <c r="AS65" s="85"/>
       <c r="AT65" s="85"/>
-      <c r="AU65" s="140">
+      <c r="AU65" s="143">
         <v>44578</v>
       </c>
-      <c r="AV65" s="140"/>
-      <c r="AW65" s="140"/>
-      <c r="AX65" s="140"/>
+      <c r="AV65" s="143"/>
+      <c r="AW65" s="143"/>
+      <c r="AX65" s="143"/>
       <c r="AY65" s="87" t="s">
         <v>475</v>
       </c>
@@ -27550,12 +27706,12 @@
       <c r="AR66" s="85"/>
       <c r="AS66" s="85"/>
       <c r="AT66" s="85"/>
-      <c r="AU66" s="140">
+      <c r="AU66" s="143">
         <v>44578</v>
       </c>
-      <c r="AV66" s="140"/>
-      <c r="AW66" s="140"/>
-      <c r="AX66" s="140"/>
+      <c r="AV66" s="143"/>
+      <c r="AW66" s="143"/>
+      <c r="AX66" s="143"/>
       <c r="AY66" s="87" t="s">
         <v>475</v>
       </c>
@@ -27619,12 +27775,12 @@
       <c r="AR67" s="85"/>
       <c r="AS67" s="85"/>
       <c r="AT67" s="85"/>
-      <c r="AU67" s="140">
+      <c r="AU67" s="143">
         <v>44578</v>
       </c>
-      <c r="AV67" s="140"/>
-      <c r="AW67" s="140"/>
-      <c r="AX67" s="140"/>
+      <c r="AV67" s="143"/>
+      <c r="AW67" s="143"/>
+      <c r="AX67" s="143"/>
       <c r="AY67" s="87" t="s">
         <v>475</v>
       </c>
@@ -27688,12 +27844,12 @@
       <c r="AR68" s="85"/>
       <c r="AS68" s="85"/>
       <c r="AT68" s="85"/>
-      <c r="AU68" s="140">
+      <c r="AU68" s="143">
         <v>44578</v>
       </c>
-      <c r="AV68" s="140"/>
-      <c r="AW68" s="140"/>
-      <c r="AX68" s="140"/>
+      <c r="AV68" s="143"/>
+      <c r="AW68" s="143"/>
+      <c r="AX68" s="143"/>
       <c r="AY68" s="87" t="s">
         <v>475</v>
       </c>
@@ -27757,12 +27913,12 @@
       <c r="AR69" s="85"/>
       <c r="AS69" s="85"/>
       <c r="AT69" s="85"/>
-      <c r="AU69" s="140">
+      <c r="AU69" s="143">
         <v>44578</v>
       </c>
-      <c r="AV69" s="140"/>
-      <c r="AW69" s="140"/>
-      <c r="AX69" s="140"/>
+      <c r="AV69" s="143"/>
+      <c r="AW69" s="143"/>
+      <c r="AX69" s="143"/>
       <c r="AY69" s="87" t="s">
         <v>475</v>
       </c>
@@ -27826,12 +27982,12 @@
       <c r="AR70" s="85"/>
       <c r="AS70" s="85"/>
       <c r="AT70" s="85"/>
-      <c r="AU70" s="140">
+      <c r="AU70" s="143">
         <v>44578</v>
       </c>
-      <c r="AV70" s="140"/>
-      <c r="AW70" s="140"/>
-      <c r="AX70" s="140"/>
+      <c r="AV70" s="143"/>
+      <c r="AW70" s="143"/>
+      <c r="AX70" s="143"/>
       <c r="AY70" s="87" t="s">
         <v>475</v>
       </c>
@@ -27895,12 +28051,12 @@
       <c r="AR71" s="85"/>
       <c r="AS71" s="85"/>
       <c r="AT71" s="85"/>
-      <c r="AU71" s="140">
+      <c r="AU71" s="143">
         <v>44578</v>
       </c>
-      <c r="AV71" s="140"/>
-      <c r="AW71" s="140"/>
-      <c r="AX71" s="140"/>
+      <c r="AV71" s="143"/>
+      <c r="AW71" s="143"/>
+      <c r="AX71" s="143"/>
       <c r="AY71" s="87" t="s">
         <v>475</v>
       </c>
@@ -27966,12 +28122,12 @@
       <c r="AR72" s="85"/>
       <c r="AS72" s="85"/>
       <c r="AT72" s="85"/>
-      <c r="AU72" s="140">
+      <c r="AU72" s="143">
         <v>44578</v>
       </c>
-      <c r="AV72" s="140"/>
-      <c r="AW72" s="140"/>
-      <c r="AX72" s="140"/>
+      <c r="AV72" s="143"/>
+      <c r="AW72" s="143"/>
+      <c r="AX72" s="143"/>
       <c r="AY72" s="87" t="s">
         <v>475</v>
       </c>
@@ -28037,12 +28193,12 @@
       <c r="AR73" s="85"/>
       <c r="AS73" s="85"/>
       <c r="AT73" s="85"/>
-      <c r="AU73" s="140">
+      <c r="AU73" s="143">
         <v>44578</v>
       </c>
-      <c r="AV73" s="140"/>
-      <c r="AW73" s="140"/>
-      <c r="AX73" s="140"/>
+      <c r="AV73" s="143"/>
+      <c r="AW73" s="143"/>
+      <c r="AX73" s="143"/>
       <c r="AY73" s="87" t="s">
         <v>475</v>
       </c>
@@ -28108,12 +28264,12 @@
       <c r="AR74" s="85"/>
       <c r="AS74" s="85"/>
       <c r="AT74" s="85"/>
-      <c r="AU74" s="140">
+      <c r="AU74" s="143">
         <v>44578</v>
       </c>
-      <c r="AV74" s="140"/>
-      <c r="AW74" s="140"/>
-      <c r="AX74" s="140"/>
+      <c r="AV74" s="143"/>
+      <c r="AW74" s="143"/>
+      <c r="AX74" s="143"/>
       <c r="AY74" s="87" t="s">
         <v>477</v>
       </c>
@@ -28179,12 +28335,12 @@
       <c r="AR75" s="85"/>
       <c r="AS75" s="85"/>
       <c r="AT75" s="85"/>
-      <c r="AU75" s="140">
+      <c r="AU75" s="143">
         <v>44578</v>
       </c>
-      <c r="AV75" s="140"/>
-      <c r="AW75" s="140"/>
-      <c r="AX75" s="140"/>
+      <c r="AV75" s="143"/>
+      <c r="AW75" s="143"/>
+      <c r="AX75" s="143"/>
       <c r="AY75" s="87" t="s">
         <v>475</v>
       </c>
@@ -28250,12 +28406,12 @@
       <c r="AR76" s="85"/>
       <c r="AS76" s="85"/>
       <c r="AT76" s="85"/>
-      <c r="AU76" s="140">
+      <c r="AU76" s="143">
         <v>44578</v>
       </c>
-      <c r="AV76" s="140"/>
-      <c r="AW76" s="140"/>
-      <c r="AX76" s="140"/>
+      <c r="AV76" s="143"/>
+      <c r="AW76" s="143"/>
+      <c r="AX76" s="143"/>
       <c r="AY76" s="87" t="s">
         <v>477</v>
       </c>
@@ -28321,12 +28477,12 @@
       <c r="AR77" s="85"/>
       <c r="AS77" s="85"/>
       <c r="AT77" s="85"/>
-      <c r="AU77" s="140">
+      <c r="AU77" s="143">
         <v>44578</v>
       </c>
-      <c r="AV77" s="140"/>
-      <c r="AW77" s="140"/>
-      <c r="AX77" s="140"/>
+      <c r="AV77" s="143"/>
+      <c r="AW77" s="143"/>
+      <c r="AX77" s="143"/>
       <c r="AY77" s="87" t="s">
         <v>477</v>
       </c>
@@ -28392,12 +28548,12 @@
       <c r="AR78" s="85"/>
       <c r="AS78" s="85"/>
       <c r="AT78" s="85"/>
-      <c r="AU78" s="140">
+      <c r="AU78" s="143">
         <v>44578</v>
       </c>
-      <c r="AV78" s="140"/>
-      <c r="AW78" s="140"/>
-      <c r="AX78" s="140"/>
+      <c r="AV78" s="143"/>
+      <c r="AW78" s="143"/>
+      <c r="AX78" s="143"/>
       <c r="AY78" s="87" t="s">
         <v>475</v>
       </c>
@@ -28461,12 +28617,12 @@
       <c r="AR79" s="85"/>
       <c r="AS79" s="85"/>
       <c r="AT79" s="85"/>
-      <c r="AU79" s="140">
+      <c r="AU79" s="143">
         <v>44578</v>
       </c>
-      <c r="AV79" s="140"/>
-      <c r="AW79" s="140"/>
-      <c r="AX79" s="140"/>
+      <c r="AV79" s="143"/>
+      <c r="AW79" s="143"/>
+      <c r="AX79" s="143"/>
       <c r="AY79" s="87" t="s">
         <v>475</v>
       </c>
@@ -28532,12 +28688,12 @@
       <c r="AR80" s="85"/>
       <c r="AS80" s="85"/>
       <c r="AT80" s="85"/>
-      <c r="AU80" s="140">
+      <c r="AU80" s="143">
         <v>44578</v>
       </c>
-      <c r="AV80" s="140"/>
-      <c r="AW80" s="140"/>
-      <c r="AX80" s="140"/>
+      <c r="AV80" s="143"/>
+      <c r="AW80" s="143"/>
+      <c r="AX80" s="143"/>
       <c r="AY80" s="87" t="s">
         <v>477</v>
       </c>
@@ -28601,12 +28757,12 @@
       <c r="AR81" s="85"/>
       <c r="AS81" s="85"/>
       <c r="AT81" s="85"/>
-      <c r="AU81" s="140">
+      <c r="AU81" s="143">
         <v>44578</v>
       </c>
-      <c r="AV81" s="140"/>
-      <c r="AW81" s="140"/>
-      <c r="AX81" s="140"/>
+      <c r="AV81" s="143"/>
+      <c r="AW81" s="143"/>
+      <c r="AX81" s="143"/>
       <c r="AY81" s="87" t="s">
         <v>477</v>
       </c>
@@ -28672,12 +28828,12 @@
       <c r="AR82" s="85"/>
       <c r="AS82" s="85"/>
       <c r="AT82" s="85"/>
-      <c r="AU82" s="140">
+      <c r="AU82" s="143">
         <v>44578</v>
       </c>
-      <c r="AV82" s="140"/>
-      <c r="AW82" s="140"/>
-      <c r="AX82" s="140"/>
+      <c r="AV82" s="143"/>
+      <c r="AW82" s="143"/>
+      <c r="AX82" s="143"/>
       <c r="AY82" s="87" t="s">
         <v>475</v>
       </c>
@@ -28741,12 +28897,12 @@
       <c r="AR83" s="85"/>
       <c r="AS83" s="85"/>
       <c r="AT83" s="85"/>
-      <c r="AU83" s="140">
+      <c r="AU83" s="143">
         <v>44578</v>
       </c>
-      <c r="AV83" s="140"/>
-      <c r="AW83" s="140"/>
-      <c r="AX83" s="140"/>
+      <c r="AV83" s="143"/>
+      <c r="AW83" s="143"/>
+      <c r="AX83" s="143"/>
       <c r="AY83" s="87" t="s">
         <v>475</v>
       </c>
@@ -28812,10 +28968,10 @@
       <c r="AR84" s="97"/>
       <c r="AS84" s="97"/>
       <c r="AT84" s="97"/>
-      <c r="AU84" s="140"/>
-      <c r="AV84" s="140"/>
-      <c r="AW84" s="140"/>
-      <c r="AX84" s="140"/>
+      <c r="AU84" s="143"/>
+      <c r="AV84" s="143"/>
+      <c r="AW84" s="143"/>
+      <c r="AX84" s="143"/>
       <c r="AY84" s="87"/>
       <c r="AZ84" s="87"/>
       <c r="BA84" s="87"/>
@@ -28875,12 +29031,12 @@
       <c r="AR85" s="85"/>
       <c r="AS85" s="85"/>
       <c r="AT85" s="85"/>
-      <c r="AU85" s="140">
+      <c r="AU85" s="143">
         <v>44578</v>
       </c>
-      <c r="AV85" s="140"/>
-      <c r="AW85" s="140"/>
-      <c r="AX85" s="140"/>
+      <c r="AV85" s="143"/>
+      <c r="AW85" s="143"/>
+      <c r="AX85" s="143"/>
       <c r="AY85" s="87" t="s">
         <v>477</v>
       </c>
@@ -28944,12 +29100,12 @@
       <c r="AR86" s="85"/>
       <c r="AS86" s="85"/>
       <c r="AT86" s="85"/>
-      <c r="AU86" s="140">
+      <c r="AU86" s="143">
         <v>44578</v>
       </c>
-      <c r="AV86" s="140"/>
-      <c r="AW86" s="140"/>
-      <c r="AX86" s="140"/>
+      <c r="AV86" s="143"/>
+      <c r="AW86" s="143"/>
+      <c r="AX86" s="143"/>
       <c r="AY86" s="87" t="s">
         <v>475</v>
       </c>
@@ -29013,10 +29169,10 @@
       <c r="AR87" s="97"/>
       <c r="AS87" s="97"/>
       <c r="AT87" s="97"/>
-      <c r="AU87" s="140"/>
-      <c r="AV87" s="140"/>
-      <c r="AW87" s="140"/>
-      <c r="AX87" s="140"/>
+      <c r="AU87" s="143"/>
+      <c r="AV87" s="143"/>
+      <c r="AW87" s="143"/>
+      <c r="AX87" s="143"/>
       <c r="AY87" s="87"/>
       <c r="AZ87" s="87"/>
       <c r="BA87" s="87"/>
@@ -29078,10 +29234,10 @@
       <c r="AR88" s="97"/>
       <c r="AS88" s="97"/>
       <c r="AT88" s="97"/>
-      <c r="AU88" s="140"/>
-      <c r="AV88" s="140"/>
-      <c r="AW88" s="140"/>
-      <c r="AX88" s="140"/>
+      <c r="AU88" s="143"/>
+      <c r="AV88" s="143"/>
+      <c r="AW88" s="143"/>
+      <c r="AX88" s="143"/>
       <c r="AY88" s="87"/>
       <c r="AZ88" s="87"/>
       <c r="BA88" s="87"/>
@@ -29141,12 +29297,12 @@
       <c r="AR89" s="85"/>
       <c r="AS89" s="85"/>
       <c r="AT89" s="85"/>
-      <c r="AU89" s="140">
+      <c r="AU89" s="143">
         <v>44578</v>
       </c>
-      <c r="AV89" s="140"/>
-      <c r="AW89" s="140"/>
-      <c r="AX89" s="140"/>
+      <c r="AV89" s="143"/>
+      <c r="AW89" s="143"/>
+      <c r="AX89" s="143"/>
       <c r="AY89" s="87" t="s">
         <v>475</v>
       </c>
@@ -29210,12 +29366,12 @@
       <c r="AR90" s="85"/>
       <c r="AS90" s="85"/>
       <c r="AT90" s="85"/>
-      <c r="AU90" s="140">
+      <c r="AU90" s="143">
         <v>44578</v>
       </c>
-      <c r="AV90" s="140"/>
-      <c r="AW90" s="140"/>
-      <c r="AX90" s="140"/>
+      <c r="AV90" s="143"/>
+      <c r="AW90" s="143"/>
+      <c r="AX90" s="143"/>
       <c r="AY90" s="87" t="s">
         <v>475</v>
       </c>
@@ -29279,10 +29435,10 @@
       <c r="AR91" s="97"/>
       <c r="AS91" s="97"/>
       <c r="AT91" s="97"/>
-      <c r="AU91" s="140"/>
-      <c r="AV91" s="140"/>
-      <c r="AW91" s="140"/>
-      <c r="AX91" s="140"/>
+      <c r="AU91" s="143"/>
+      <c r="AV91" s="143"/>
+      <c r="AW91" s="143"/>
+      <c r="AX91" s="143"/>
       <c r="AY91" s="87"/>
       <c r="AZ91" s="87"/>
       <c r="BA91" s="87"/>
@@ -29344,12 +29500,12 @@
       <c r="AR92" s="85"/>
       <c r="AS92" s="85"/>
       <c r="AT92" s="85"/>
-      <c r="AU92" s="140">
+      <c r="AU92" s="143">
         <v>44578</v>
       </c>
-      <c r="AV92" s="140"/>
-      <c r="AW92" s="140"/>
-      <c r="AX92" s="140"/>
+      <c r="AV92" s="143"/>
+      <c r="AW92" s="143"/>
+      <c r="AX92" s="143"/>
       <c r="AY92" s="87" t="s">
         <v>477</v>
       </c>
@@ -29407,10 +29563,10 @@
       <c r="AR93" s="85"/>
       <c r="AS93" s="85"/>
       <c r="AT93" s="85"/>
-      <c r="AU93" s="140"/>
-      <c r="AV93" s="140"/>
-      <c r="AW93" s="140"/>
-      <c r="AX93" s="140"/>
+      <c r="AU93" s="143"/>
+      <c r="AV93" s="143"/>
+      <c r="AW93" s="143"/>
+      <c r="AX93" s="143"/>
       <c r="AY93" s="87"/>
       <c r="AZ93" s="87"/>
       <c r="BA93" s="87"/>
@@ -29464,10 +29620,10 @@
       <c r="AR94" s="85"/>
       <c r="AS94" s="85"/>
       <c r="AT94" s="85"/>
-      <c r="AU94" s="140"/>
-      <c r="AV94" s="140"/>
-      <c r="AW94" s="140"/>
-      <c r="AX94" s="140"/>
+      <c r="AU94" s="143"/>
+      <c r="AV94" s="143"/>
+      <c r="AW94" s="143"/>
+      <c r="AX94" s="143"/>
       <c r="AY94" s="87"/>
       <c r="AZ94" s="87"/>
       <c r="BA94" s="87"/>
@@ -29521,10 +29677,10 @@
       <c r="AR95" s="85"/>
       <c r="AS95" s="85"/>
       <c r="AT95" s="85"/>
-      <c r="AU95" s="140"/>
-      <c r="AV95" s="140"/>
-      <c r="AW95" s="140"/>
-      <c r="AX95" s="140"/>
+      <c r="AU95" s="143"/>
+      <c r="AV95" s="143"/>
+      <c r="AW95" s="143"/>
+      <c r="AX95" s="143"/>
       <c r="AY95" s="87"/>
       <c r="AZ95" s="87"/>
       <c r="BA95" s="87"/>
@@ -29578,10 +29734,10 @@
       <c r="AR96" s="85"/>
       <c r="AS96" s="85"/>
       <c r="AT96" s="85"/>
-      <c r="AU96" s="140"/>
-      <c r="AV96" s="140"/>
-      <c r="AW96" s="140"/>
-      <c r="AX96" s="140"/>
+      <c r="AU96" s="143"/>
+      <c r="AV96" s="143"/>
+      <c r="AW96" s="143"/>
+      <c r="AX96" s="143"/>
       <c r="AY96" s="87"/>
       <c r="AZ96" s="87"/>
       <c r="BA96" s="87"/>
@@ -29635,10 +29791,10 @@
       <c r="AR97" s="85"/>
       <c r="AS97" s="85"/>
       <c r="AT97" s="85"/>
-      <c r="AU97" s="140"/>
-      <c r="AV97" s="140"/>
-      <c r="AW97" s="140"/>
-      <c r="AX97" s="140"/>
+      <c r="AU97" s="143"/>
+      <c r="AV97" s="143"/>
+      <c r="AW97" s="143"/>
+      <c r="AX97" s="143"/>
       <c r="AY97" s="87"/>
       <c r="AZ97" s="87"/>
       <c r="BA97" s="87"/>
@@ -29692,10 +29848,10 @@
       <c r="AR98" s="85"/>
       <c r="AS98" s="85"/>
       <c r="AT98" s="85"/>
-      <c r="AU98" s="140"/>
-      <c r="AV98" s="140"/>
-      <c r="AW98" s="140"/>
-      <c r="AX98" s="140"/>
+      <c r="AU98" s="143"/>
+      <c r="AV98" s="143"/>
+      <c r="AW98" s="143"/>
+      <c r="AX98" s="143"/>
       <c r="AY98" s="87"/>
       <c r="AZ98" s="87"/>
       <c r="BA98" s="87"/>
@@ -30400,8 +30556,8 @@
   </sheetPr>
   <dimension ref="A1:BC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5:AG5"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -30533,7 +30689,7 @@
       <c r="AM2" s="116"/>
       <c r="AN2" s="116"/>
       <c r="AO2" s="117">
-        <v>44544</v>
+        <v>44579</v>
       </c>
       <c r="AP2" s="117"/>
       <c r="AQ2" s="117"/>
@@ -30609,12 +30765,12 @@
       <c r="AR4" s="102"/>
       <c r="AS4" s="102"/>
       <c r="AT4" s="102"/>
-      <c r="AU4" s="141" t="s">
+      <c r="AU4" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="141"/>
-      <c r="AW4" s="141"/>
-      <c r="AX4" s="141"/>
+      <c r="AV4" s="144"/>
+      <c r="AW4" s="144"/>
+      <c r="AX4" s="144"/>
       <c r="AY4" s="102" t="s">
         <v>16</v>
       </c>
@@ -30674,10 +30830,10 @@
       <c r="AR5" s="101"/>
       <c r="AS5" s="101"/>
       <c r="AT5" s="101"/>
-      <c r="AU5" s="141"/>
-      <c r="AV5" s="141"/>
-      <c r="AW5" s="141"/>
-      <c r="AX5" s="141"/>
+      <c r="AU5" s="144"/>
+      <c r="AV5" s="144"/>
+      <c r="AW5" s="144"/>
+      <c r="AX5" s="144"/>
       <c r="AY5" s="102"/>
       <c r="AZ5" s="102"/>
       <c r="BA5" s="102"/>
@@ -30739,13 +30895,19 @@
       <c r="AR6" s="85"/>
       <c r="AS6" s="85"/>
       <c r="AT6" s="85"/>
-      <c r="AU6" s="140"/>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="140"/>
-      <c r="AX6" s="140"/>
-      <c r="AY6" s="87"/>
+      <c r="AU6" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV6" s="143"/>
+      <c r="AW6" s="143"/>
+      <c r="AX6" s="143"/>
+      <c r="AY6" s="87" t="s">
+        <v>475</v>
+      </c>
       <c r="AZ6" s="87"/>
-      <c r="BA6" s="87"/>
+      <c r="BA6" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB6" s="87"/>
       <c r="BC6" s="87"/>
     </row>
@@ -30802,13 +30964,19 @@
       <c r="AR7" s="85"/>
       <c r="AS7" s="85"/>
       <c r="AT7" s="85"/>
-      <c r="AU7" s="140"/>
-      <c r="AV7" s="140"/>
-      <c r="AW7" s="140"/>
-      <c r="AX7" s="140"/>
-      <c r="AY7" s="87"/>
+      <c r="AU7" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV7" s="143"/>
+      <c r="AW7" s="143"/>
+      <c r="AX7" s="143"/>
+      <c r="AY7" s="87" t="s">
+        <v>475</v>
+      </c>
       <c r="AZ7" s="87"/>
-      <c r="BA7" s="87"/>
+      <c r="BA7" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB7" s="87"/>
       <c r="BC7" s="87"/>
     </row>
@@ -30867,13 +31035,19 @@
       <c r="AR8" s="85"/>
       <c r="AS8" s="85"/>
       <c r="AT8" s="85"/>
-      <c r="AU8" s="140"/>
-      <c r="AV8" s="140"/>
-      <c r="AW8" s="140"/>
-      <c r="AX8" s="140"/>
-      <c r="AY8" s="87"/>
+      <c r="AU8" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
+      <c r="AX8" s="143"/>
+      <c r="AY8" s="87" t="s">
+        <v>475</v>
+      </c>
       <c r="AZ8" s="87"/>
-      <c r="BA8" s="87"/>
+      <c r="BA8" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB8" s="87"/>
       <c r="BC8" s="87"/>
     </row>
@@ -30930,13 +31104,19 @@
       <c r="AR9" s="85"/>
       <c r="AS9" s="85"/>
       <c r="AT9" s="85"/>
-      <c r="AU9" s="140"/>
-      <c r="AV9" s="140"/>
-      <c r="AW9" s="140"/>
-      <c r="AX9" s="140"/>
-      <c r="AY9" s="87"/>
+      <c r="AU9" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV9" s="143"/>
+      <c r="AW9" s="143"/>
+      <c r="AX9" s="143"/>
+      <c r="AY9" s="87" t="s">
+        <v>475</v>
+      </c>
       <c r="AZ9" s="87"/>
-      <c r="BA9" s="87"/>
+      <c r="BA9" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB9" s="87"/>
       <c r="BC9" s="87"/>
     </row>
@@ -30995,10 +31175,12 @@
       <c r="AR10" s="97"/>
       <c r="AS10" s="97"/>
       <c r="AT10" s="97"/>
-      <c r="AU10" s="140"/>
-      <c r="AV10" s="140"/>
-      <c r="AW10" s="140"/>
-      <c r="AX10" s="140"/>
+      <c r="AU10" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV10" s="143"/>
+      <c r="AW10" s="143"/>
+      <c r="AX10" s="143"/>
       <c r="AY10" s="87"/>
       <c r="AZ10" s="87"/>
       <c r="BA10" s="87"/>
@@ -31058,13 +31240,19 @@
       <c r="AR11" s="85"/>
       <c r="AS11" s="85"/>
       <c r="AT11" s="85"/>
-      <c r="AU11" s="140"/>
-      <c r="AV11" s="140"/>
-      <c r="AW11" s="140"/>
-      <c r="AX11" s="140"/>
-      <c r="AY11" s="87"/>
+      <c r="AU11" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV11" s="143"/>
+      <c r="AW11" s="143"/>
+      <c r="AX11" s="143"/>
+      <c r="AY11" s="87" t="s">
+        <v>477</v>
+      </c>
       <c r="AZ11" s="87"/>
-      <c r="BA11" s="87"/>
+      <c r="BA11" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB11" s="87"/>
       <c r="BC11" s="87"/>
     </row>
@@ -31121,10 +31309,12 @@
       <c r="AR12" s="97"/>
       <c r="AS12" s="97"/>
       <c r="AT12" s="97"/>
-      <c r="AU12" s="140"/>
-      <c r="AV12" s="140"/>
-      <c r="AW12" s="140"/>
-      <c r="AX12" s="140"/>
+      <c r="AU12" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV12" s="143"/>
+      <c r="AW12" s="143"/>
+      <c r="AX12" s="143"/>
       <c r="AY12" s="87"/>
       <c r="AZ12" s="87"/>
       <c r="BA12" s="87"/>
@@ -31186,10 +31376,12 @@
       <c r="AR13" s="97"/>
       <c r="AS13" s="97"/>
       <c r="AT13" s="97"/>
-      <c r="AU13" s="140"/>
-      <c r="AV13" s="140"/>
-      <c r="AW13" s="140"/>
-      <c r="AX13" s="140"/>
+      <c r="AU13" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV13" s="143"/>
+      <c r="AW13" s="143"/>
+      <c r="AX13" s="143"/>
       <c r="AY13" s="87"/>
       <c r="AZ13" s="87"/>
       <c r="BA13" s="87"/>
@@ -31249,13 +31441,19 @@
       <c r="AR14" s="85"/>
       <c r="AS14" s="85"/>
       <c r="AT14" s="85"/>
-      <c r="AU14" s="140"/>
-      <c r="AV14" s="140"/>
-      <c r="AW14" s="140"/>
-      <c r="AX14" s="140"/>
-      <c r="AY14" s="87"/>
+      <c r="AU14" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV14" s="143"/>
+      <c r="AW14" s="143"/>
+      <c r="AX14" s="143"/>
+      <c r="AY14" s="87" t="s">
+        <v>477</v>
+      </c>
       <c r="AZ14" s="87"/>
-      <c r="BA14" s="87"/>
+      <c r="BA14" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB14" s="87"/>
       <c r="BC14" s="87"/>
     </row>
@@ -31312,13 +31510,19 @@
       <c r="AR15" s="85"/>
       <c r="AS15" s="85"/>
       <c r="AT15" s="85"/>
-      <c r="AU15" s="140"/>
-      <c r="AV15" s="140"/>
-      <c r="AW15" s="140"/>
-      <c r="AX15" s="140"/>
-      <c r="AY15" s="87"/>
+      <c r="AU15" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV15" s="143"/>
+      <c r="AW15" s="143"/>
+      <c r="AX15" s="143"/>
+      <c r="AY15" s="87" t="s">
+        <v>477</v>
+      </c>
       <c r="AZ15" s="87"/>
-      <c r="BA15" s="87"/>
+      <c r="BA15" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB15" s="87"/>
       <c r="BC15" s="87"/>
     </row>
@@ -31375,10 +31579,12 @@
       <c r="AR16" s="97"/>
       <c r="AS16" s="97"/>
       <c r="AT16" s="97"/>
-      <c r="AU16" s="140"/>
-      <c r="AV16" s="140"/>
-      <c r="AW16" s="140"/>
-      <c r="AX16" s="140"/>
+      <c r="AU16" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV16" s="143"/>
+      <c r="AW16" s="143"/>
+      <c r="AX16" s="143"/>
       <c r="AY16" s="87"/>
       <c r="AZ16" s="87"/>
       <c r="BA16" s="87"/>
@@ -31440,13 +31646,19 @@
       <c r="AR17" s="85"/>
       <c r="AS17" s="85"/>
       <c r="AT17" s="85"/>
-      <c r="AU17" s="140"/>
-      <c r="AV17" s="140"/>
-      <c r="AW17" s="140"/>
-      <c r="AX17" s="140"/>
-      <c r="AY17" s="87"/>
+      <c r="AU17" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV17" s="143"/>
+      <c r="AW17" s="143"/>
+      <c r="AX17" s="143"/>
+      <c r="AY17" s="87" t="s">
+        <v>475</v>
+      </c>
       <c r="AZ17" s="87"/>
-      <c r="BA17" s="87"/>
+      <c r="BA17" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB17" s="87"/>
       <c r="BC17" s="87"/>
     </row>
@@ -31503,13 +31715,19 @@
       <c r="AR18" s="85"/>
       <c r="AS18" s="85"/>
       <c r="AT18" s="85"/>
-      <c r="AU18" s="140"/>
-      <c r="AV18" s="140"/>
-      <c r="AW18" s="140"/>
-      <c r="AX18" s="140"/>
-      <c r="AY18" s="87"/>
+      <c r="AU18" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV18" s="143"/>
+      <c r="AW18" s="143"/>
+      <c r="AX18" s="143"/>
+      <c r="AY18" s="87" t="s">
+        <v>475</v>
+      </c>
       <c r="AZ18" s="87"/>
-      <c r="BA18" s="87"/>
+      <c r="BA18" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB18" s="87"/>
       <c r="BC18" s="87"/>
     </row>
@@ -31568,13 +31786,19 @@
       <c r="AR19" s="85"/>
       <c r="AS19" s="85"/>
       <c r="AT19" s="85"/>
-      <c r="AU19" s="140"/>
-      <c r="AV19" s="140"/>
-      <c r="AW19" s="140"/>
-      <c r="AX19" s="140"/>
-      <c r="AY19" s="87"/>
+      <c r="AU19" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV19" s="143"/>
+      <c r="AW19" s="143"/>
+      <c r="AX19" s="143"/>
+      <c r="AY19" s="87" t="s">
+        <v>477</v>
+      </c>
       <c r="AZ19" s="87"/>
-      <c r="BA19" s="87"/>
+      <c r="BA19" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB19" s="87"/>
       <c r="BC19" s="87"/>
     </row>
@@ -31633,13 +31857,19 @@
       <c r="AR20" s="85"/>
       <c r="AS20" s="85"/>
       <c r="AT20" s="85"/>
-      <c r="AU20" s="140"/>
-      <c r="AV20" s="140"/>
-      <c r="AW20" s="140"/>
-      <c r="AX20" s="140"/>
-      <c r="AY20" s="87"/>
+      <c r="AU20" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV20" s="143"/>
+      <c r="AW20" s="143"/>
+      <c r="AX20" s="143"/>
+      <c r="AY20" s="87" t="s">
+        <v>475</v>
+      </c>
       <c r="AZ20" s="87"/>
-      <c r="BA20" s="87"/>
+      <c r="BA20" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB20" s="87"/>
       <c r="BC20" s="87"/>
     </row>
@@ -31692,10 +31922,10 @@
       <c r="AR21" s="101"/>
       <c r="AS21" s="101"/>
       <c r="AT21" s="101"/>
-      <c r="AU21" s="141"/>
-      <c r="AV21" s="141"/>
-      <c r="AW21" s="141"/>
-      <c r="AX21" s="141"/>
+      <c r="AU21" s="144"/>
+      <c r="AV21" s="144"/>
+      <c r="AW21" s="144"/>
+      <c r="AX21" s="144"/>
       <c r="AY21" s="102"/>
       <c r="AZ21" s="102"/>
       <c r="BA21" s="102"/>
@@ -31757,13 +31987,19 @@
       <c r="AR22" s="85"/>
       <c r="AS22" s="85"/>
       <c r="AT22" s="85"/>
-      <c r="AU22" s="140"/>
-      <c r="AV22" s="140"/>
-      <c r="AW22" s="140"/>
-      <c r="AX22" s="140"/>
-      <c r="AY22" s="87"/>
+      <c r="AU22" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV22" s="143"/>
+      <c r="AW22" s="143"/>
+      <c r="AX22" s="143"/>
+      <c r="AY22" s="87" t="s">
+        <v>475</v>
+      </c>
       <c r="AZ22" s="87"/>
-      <c r="BA22" s="87"/>
+      <c r="BA22" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB22" s="87"/>
       <c r="BC22" s="87"/>
     </row>
@@ -31820,13 +32056,19 @@
       <c r="AR23" s="85"/>
       <c r="AS23" s="85"/>
       <c r="AT23" s="85"/>
-      <c r="AU23" s="140"/>
-      <c r="AV23" s="140"/>
-      <c r="AW23" s="140"/>
-      <c r="AX23" s="140"/>
-      <c r="AY23" s="87"/>
+      <c r="AU23" s="143">
+        <v>44578</v>
+      </c>
+      <c r="AV23" s="143"/>
+      <c r="AW23" s="143"/>
+      <c r="AX23" s="143"/>
+      <c r="AY23" s="87" t="s">
+        <v>475</v>
+      </c>
       <c r="AZ23" s="87"/>
-      <c r="BA23" s="87"/>
+      <c r="BA23" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB23" s="87"/>
       <c r="BC23" s="87"/>
     </row>
@@ -31879,10 +32121,10 @@
       <c r="AR24" s="101"/>
       <c r="AS24" s="101"/>
       <c r="AT24" s="101"/>
-      <c r="AU24" s="141"/>
-      <c r="AV24" s="141"/>
-      <c r="AW24" s="141"/>
-      <c r="AX24" s="141"/>
+      <c r="AU24" s="144"/>
+      <c r="AV24" s="144"/>
+      <c r="AW24" s="144"/>
+      <c r="AX24" s="144"/>
       <c r="AY24" s="102"/>
       <c r="AZ24" s="102"/>
       <c r="BA24" s="102"/>
@@ -31944,15 +32186,21 @@
       <c r="AR25" s="133"/>
       <c r="AS25" s="133"/>
       <c r="AT25" s="133"/>
-      <c r="AU25" s="143"/>
+      <c r="AU25" s="143">
+        <v>44579</v>
+      </c>
       <c r="AV25" s="143"/>
       <c r="AW25" s="143"/>
       <c r="AX25" s="143"/>
-      <c r="AY25" s="135"/>
-      <c r="AZ25" s="135"/>
-      <c r="BA25" s="135"/>
-      <c r="BB25" s="135"/>
-      <c r="BC25" s="135"/>
+      <c r="AY25" s="87" t="s">
+        <v>475</v>
+      </c>
+      <c r="AZ25" s="87"/>
+      <c r="BA25" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB25" s="87"/>
+      <c r="BC25" s="87"/>
     </row>
     <row r="26" spans="1:55" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="88">
@@ -32007,13 +32255,19 @@
       <c r="AR26" s="85"/>
       <c r="AS26" s="85"/>
       <c r="AT26" s="85"/>
-      <c r="AU26" s="140"/>
-      <c r="AV26" s="140"/>
-      <c r="AW26" s="140"/>
-      <c r="AX26" s="140"/>
-      <c r="AY26" s="87"/>
+      <c r="AU26" s="143">
+        <v>44579</v>
+      </c>
+      <c r="AV26" s="143"/>
+      <c r="AW26" s="143"/>
+      <c r="AX26" s="143"/>
+      <c r="AY26" s="87" t="s">
+        <v>475</v>
+      </c>
       <c r="AZ26" s="87"/>
-      <c r="BA26" s="87"/>
+      <c r="BA26" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="BB26" s="87"/>
       <c r="BC26" s="87"/>
     </row>
@@ -32072,10 +32326,10 @@
       <c r="AR27" s="97"/>
       <c r="AS27" s="97"/>
       <c r="AT27" s="97"/>
-      <c r="AU27" s="143"/>
-      <c r="AV27" s="143"/>
-      <c r="AW27" s="143"/>
-      <c r="AX27" s="143"/>
+      <c r="AU27" s="146"/>
+      <c r="AV27" s="146"/>
+      <c r="AW27" s="146"/>
+      <c r="AX27" s="146"/>
       <c r="AY27" s="135"/>
       <c r="AZ27" s="135"/>
       <c r="BA27" s="135"/>
@@ -32135,15 +32389,21 @@
       <c r="AR28" s="85"/>
       <c r="AS28" s="85"/>
       <c r="AT28" s="85"/>
-      <c r="AU28" s="143"/>
+      <c r="AU28" s="143">
+        <v>44579</v>
+      </c>
       <c r="AV28" s="143"/>
       <c r="AW28" s="143"/>
       <c r="AX28" s="143"/>
-      <c r="AY28" s="135"/>
-      <c r="AZ28" s="135"/>
-      <c r="BA28" s="135"/>
-      <c r="BB28" s="135"/>
-      <c r="BC28" s="135"/>
+      <c r="AY28" s="87" t="s">
+        <v>475</v>
+      </c>
+      <c r="AZ28" s="87"/>
+      <c r="BA28" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB28" s="87"/>
+      <c r="BC28" s="87"/>
     </row>
     <row r="29" spans="1:55" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="124">
@@ -32198,10 +32458,10 @@
       <c r="AR29" s="97"/>
       <c r="AS29" s="97"/>
       <c r="AT29" s="97"/>
-      <c r="AU29" s="143"/>
-      <c r="AV29" s="143"/>
-      <c r="AW29" s="143"/>
-      <c r="AX29" s="143"/>
+      <c r="AU29" s="146"/>
+      <c r="AV29" s="146"/>
+      <c r="AW29" s="146"/>
+      <c r="AX29" s="146"/>
       <c r="AY29" s="135"/>
       <c r="AZ29" s="135"/>
       <c r="BA29" s="135"/>
@@ -32263,10 +32523,10 @@
       <c r="AR30" s="97"/>
       <c r="AS30" s="97"/>
       <c r="AT30" s="97"/>
-      <c r="AU30" s="143"/>
-      <c r="AV30" s="143"/>
-      <c r="AW30" s="143"/>
-      <c r="AX30" s="143"/>
+      <c r="AU30" s="146"/>
+      <c r="AV30" s="146"/>
+      <c r="AW30" s="146"/>
+      <c r="AX30" s="146"/>
       <c r="AY30" s="135"/>
       <c r="AZ30" s="135"/>
       <c r="BA30" s="135"/>
@@ -32326,15 +32586,21 @@
       <c r="AR31" s="85"/>
       <c r="AS31" s="85"/>
       <c r="AT31" s="85"/>
-      <c r="AU31" s="143"/>
+      <c r="AU31" s="143">
+        <v>44579</v>
+      </c>
       <c r="AV31" s="143"/>
       <c r="AW31" s="143"/>
       <c r="AX31" s="143"/>
-      <c r="AY31" s="135"/>
-      <c r="AZ31" s="135"/>
-      <c r="BA31" s="135"/>
-      <c r="BB31" s="135"/>
-      <c r="BC31" s="135"/>
+      <c r="AY31" s="87" t="s">
+        <v>475</v>
+      </c>
+      <c r="AZ31" s="87"/>
+      <c r="BA31" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB31" s="87"/>
+      <c r="BC31" s="87"/>
     </row>
     <row r="32" spans="1:55" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="124">
@@ -32389,10 +32655,10 @@
       <c r="AR32" s="97"/>
       <c r="AS32" s="97"/>
       <c r="AT32" s="97"/>
-      <c r="AU32" s="143"/>
-      <c r="AV32" s="143"/>
-      <c r="AW32" s="143"/>
-      <c r="AX32" s="143"/>
+      <c r="AU32" s="146"/>
+      <c r="AV32" s="146"/>
+      <c r="AW32" s="146"/>
+      <c r="AX32" s="146"/>
       <c r="AY32" s="135"/>
       <c r="AZ32" s="135"/>
       <c r="BA32" s="135"/>
@@ -32454,15 +32720,21 @@
       <c r="AR33" s="85"/>
       <c r="AS33" s="85"/>
       <c r="AT33" s="85"/>
-      <c r="AU33" s="143"/>
+      <c r="AU33" s="143">
+        <v>44579</v>
+      </c>
       <c r="AV33" s="143"/>
       <c r="AW33" s="143"/>
       <c r="AX33" s="143"/>
-      <c r="AY33" s="135"/>
-      <c r="AZ33" s="135"/>
-      <c r="BA33" s="135"/>
-      <c r="BB33" s="135"/>
-      <c r="BC33" s="135"/>
+      <c r="AY33" s="87" t="s">
+        <v>475</v>
+      </c>
+      <c r="AZ33" s="87"/>
+      <c r="BA33" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB33" s="87"/>
+      <c r="BC33" s="87"/>
     </row>
     <row r="34" spans="1:55" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="88"/>
@@ -32511,10 +32783,10 @@
       <c r="AR34" s="85"/>
       <c r="AS34" s="85"/>
       <c r="AT34" s="85"/>
-      <c r="AU34" s="140"/>
-      <c r="AV34" s="140"/>
-      <c r="AW34" s="140"/>
-      <c r="AX34" s="140"/>
+      <c r="AU34" s="143"/>
+      <c r="AV34" s="143"/>
+      <c r="AW34" s="143"/>
+      <c r="AX34" s="143"/>
       <c r="AY34" s="87"/>
       <c r="AZ34" s="87"/>
       <c r="BA34" s="87"/>
@@ -32568,10 +32840,10 @@
       <c r="AR35" s="133"/>
       <c r="AS35" s="133"/>
       <c r="AT35" s="133"/>
-      <c r="AU35" s="143"/>
-      <c r="AV35" s="143"/>
-      <c r="AW35" s="143"/>
-      <c r="AX35" s="143"/>
+      <c r="AU35" s="146"/>
+      <c r="AV35" s="146"/>
+      <c r="AW35" s="146"/>
+      <c r="AX35" s="146"/>
       <c r="AY35" s="135"/>
       <c r="AZ35" s="135"/>
       <c r="BA35" s="135"/>
@@ -32625,10 +32897,10 @@
       <c r="AR36" s="133"/>
       <c r="AS36" s="133"/>
       <c r="AT36" s="133"/>
-      <c r="AU36" s="143"/>
-      <c r="AV36" s="143"/>
-      <c r="AW36" s="143"/>
-      <c r="AX36" s="143"/>
+      <c r="AU36" s="146"/>
+      <c r="AV36" s="146"/>
+      <c r="AW36" s="146"/>
+      <c r="AX36" s="146"/>
       <c r="AY36" s="135"/>
       <c r="AZ36" s="135"/>
       <c r="BA36" s="135"/>
@@ -32682,10 +32954,10 @@
       <c r="AR37" s="133"/>
       <c r="AS37" s="133"/>
       <c r="AT37" s="133"/>
-      <c r="AU37" s="143"/>
-      <c r="AV37" s="143"/>
-      <c r="AW37" s="143"/>
-      <c r="AX37" s="143"/>
+      <c r="AU37" s="146"/>
+      <c r="AV37" s="146"/>
+      <c r="AW37" s="146"/>
+      <c r="AX37" s="146"/>
       <c r="AY37" s="135"/>
       <c r="AZ37" s="135"/>
       <c r="BA37" s="135"/>
@@ -32739,10 +33011,10 @@
       <c r="AR38" s="85"/>
       <c r="AS38" s="85"/>
       <c r="AT38" s="85"/>
-      <c r="AU38" s="140"/>
-      <c r="AV38" s="140"/>
-      <c r="AW38" s="140"/>
-      <c r="AX38" s="140"/>
+      <c r="AU38" s="143"/>
+      <c r="AV38" s="143"/>
+      <c r="AW38" s="143"/>
+      <c r="AX38" s="143"/>
       <c r="AY38" s="87"/>
       <c r="AZ38" s="87"/>
       <c r="BA38" s="87"/>
@@ -32796,10 +33068,10 @@
       <c r="AR39" s="133"/>
       <c r="AS39" s="133"/>
       <c r="AT39" s="133"/>
-      <c r="AU39" s="143"/>
-      <c r="AV39" s="143"/>
-      <c r="AW39" s="143"/>
-      <c r="AX39" s="143"/>
+      <c r="AU39" s="146"/>
+      <c r="AV39" s="146"/>
+      <c r="AW39" s="146"/>
+      <c r="AX39" s="146"/>
       <c r="AY39" s="135"/>
       <c r="AZ39" s="135"/>
       <c r="BA39" s="135"/>
@@ -32853,10 +33125,10 @@
       <c r="AR40" s="133"/>
       <c r="AS40" s="133"/>
       <c r="AT40" s="133"/>
-      <c r="AU40" s="143"/>
-      <c r="AV40" s="143"/>
-      <c r="AW40" s="143"/>
-      <c r="AX40" s="143"/>
+      <c r="AU40" s="146"/>
+      <c r="AV40" s="146"/>
+      <c r="AW40" s="146"/>
+      <c r="AX40" s="146"/>
       <c r="AY40" s="135"/>
       <c r="AZ40" s="135"/>
       <c r="BA40" s="135"/>
@@ -32910,10 +33182,10 @@
       <c r="AR41" s="85"/>
       <c r="AS41" s="85"/>
       <c r="AT41" s="85"/>
-      <c r="AU41" s="140"/>
-      <c r="AV41" s="140"/>
-      <c r="AW41" s="140"/>
-      <c r="AX41" s="140"/>
+      <c r="AU41" s="143"/>
+      <c r="AV41" s="143"/>
+      <c r="AW41" s="143"/>
+      <c r="AX41" s="143"/>
       <c r="AY41" s="87"/>
       <c r="AZ41" s="87"/>
       <c r="BA41" s="87"/>
@@ -32967,10 +33239,10 @@
       <c r="AR42" s="133"/>
       <c r="AS42" s="133"/>
       <c r="AT42" s="133"/>
-      <c r="AU42" s="143"/>
-      <c r="AV42" s="143"/>
-      <c r="AW42" s="143"/>
-      <c r="AX42" s="143"/>
+      <c r="AU42" s="146"/>
+      <c r="AV42" s="146"/>
+      <c r="AW42" s="146"/>
+      <c r="AX42" s="146"/>
       <c r="AY42" s="135"/>
       <c r="AZ42" s="135"/>
       <c r="BA42" s="135"/>
@@ -33024,10 +33296,10 @@
       <c r="AR43" s="133"/>
       <c r="AS43" s="133"/>
       <c r="AT43" s="133"/>
-      <c r="AU43" s="143"/>
-      <c r="AV43" s="143"/>
-      <c r="AW43" s="143"/>
-      <c r="AX43" s="143"/>
+      <c r="AU43" s="146"/>
+      <c r="AV43" s="146"/>
+      <c r="AW43" s="146"/>
+      <c r="AX43" s="146"/>
       <c r="AY43" s="135"/>
       <c r="AZ43" s="135"/>
       <c r="BA43" s="135"/>
@@ -33081,10 +33353,10 @@
       <c r="AR44" s="133"/>
       <c r="AS44" s="133"/>
       <c r="AT44" s="133"/>
-      <c r="AU44" s="143"/>
-      <c r="AV44" s="143"/>
-      <c r="AW44" s="143"/>
-      <c r="AX44" s="143"/>
+      <c r="AU44" s="146"/>
+      <c r="AV44" s="146"/>
+      <c r="AW44" s="146"/>
+      <c r="AX44" s="146"/>
       <c r="AY44" s="135"/>
       <c r="AZ44" s="135"/>
       <c r="BA44" s="135"/>
@@ -33138,10 +33410,10 @@
       <c r="AR45" s="85"/>
       <c r="AS45" s="85"/>
       <c r="AT45" s="85"/>
-      <c r="AU45" s="140"/>
-      <c r="AV45" s="140"/>
-      <c r="AW45" s="140"/>
-      <c r="AX45" s="140"/>
+      <c r="AU45" s="143"/>
+      <c r="AV45" s="143"/>
+      <c r="AW45" s="143"/>
+      <c r="AX45" s="143"/>
       <c r="AY45" s="87"/>
       <c r="AZ45" s="87"/>
       <c r="BA45" s="87"/>
@@ -33195,10 +33467,10 @@
       <c r="AR46" s="133"/>
       <c r="AS46" s="133"/>
       <c r="AT46" s="133"/>
-      <c r="AU46" s="143"/>
-      <c r="AV46" s="143"/>
-      <c r="AW46" s="143"/>
-      <c r="AX46" s="143"/>
+      <c r="AU46" s="146"/>
+      <c r="AV46" s="146"/>
+      <c r="AW46" s="146"/>
+      <c r="AX46" s="146"/>
       <c r="AY46" s="135"/>
       <c r="AZ46" s="135"/>
       <c r="BA46" s="135"/>
@@ -33252,10 +33524,10 @@
       <c r="AR47" s="133"/>
       <c r="AS47" s="133"/>
       <c r="AT47" s="133"/>
-      <c r="AU47" s="143"/>
-      <c r="AV47" s="143"/>
-      <c r="AW47" s="143"/>
-      <c r="AX47" s="143"/>
+      <c r="AU47" s="146"/>
+      <c r="AV47" s="146"/>
+      <c r="AW47" s="146"/>
+      <c r="AX47" s="146"/>
       <c r="AY47" s="135"/>
       <c r="AZ47" s="135"/>
       <c r="BA47" s="135"/>
@@ -33309,10 +33581,10 @@
       <c r="AR48" s="85"/>
       <c r="AS48" s="85"/>
       <c r="AT48" s="85"/>
-      <c r="AU48" s="140"/>
-      <c r="AV48" s="140"/>
-      <c r="AW48" s="140"/>
-      <c r="AX48" s="140"/>
+      <c r="AU48" s="143"/>
+      <c r="AV48" s="143"/>
+      <c r="AW48" s="143"/>
+      <c r="AX48" s="143"/>
       <c r="AY48" s="87"/>
       <c r="AZ48" s="87"/>
       <c r="BA48" s="87"/>
@@ -33366,10 +33638,10 @@
       <c r="AR49" s="133"/>
       <c r="AS49" s="133"/>
       <c r="AT49" s="133"/>
-      <c r="AU49" s="143"/>
-      <c r="AV49" s="143"/>
-      <c r="AW49" s="143"/>
-      <c r="AX49" s="143"/>
+      <c r="AU49" s="146"/>
+      <c r="AV49" s="146"/>
+      <c r="AW49" s="146"/>
+      <c r="AX49" s="146"/>
       <c r="AY49" s="135"/>
       <c r="AZ49" s="135"/>
       <c r="BA49" s="135"/>
@@ -33423,10 +33695,10 @@
       <c r="AR50" s="133"/>
       <c r="AS50" s="133"/>
       <c r="AT50" s="133"/>
-      <c r="AU50" s="143"/>
-      <c r="AV50" s="143"/>
-      <c r="AW50" s="143"/>
-      <c r="AX50" s="143"/>
+      <c r="AU50" s="146"/>
+      <c r="AV50" s="146"/>
+      <c r="AW50" s="146"/>
+      <c r="AX50" s="146"/>
       <c r="AY50" s="135"/>
       <c r="AZ50" s="135"/>
       <c r="BA50" s="135"/>
@@ -33480,10 +33752,10 @@
       <c r="AR51" s="133"/>
       <c r="AS51" s="133"/>
       <c r="AT51" s="133"/>
-      <c r="AU51" s="143"/>
-      <c r="AV51" s="143"/>
-      <c r="AW51" s="143"/>
-      <c r="AX51" s="143"/>
+      <c r="AU51" s="146"/>
+      <c r="AV51" s="146"/>
+      <c r="AW51" s="146"/>
+      <c r="AX51" s="146"/>
       <c r="AY51" s="135"/>
       <c r="AZ51" s="135"/>
       <c r="BA51" s="135"/>
@@ -33537,10 +33809,10 @@
       <c r="AR52" s="85"/>
       <c r="AS52" s="85"/>
       <c r="AT52" s="85"/>
-      <c r="AU52" s="140"/>
-      <c r="AV52" s="140"/>
-      <c r="AW52" s="140"/>
-      <c r="AX52" s="140"/>
+      <c r="AU52" s="143"/>
+      <c r="AV52" s="143"/>
+      <c r="AW52" s="143"/>
+      <c r="AX52" s="143"/>
       <c r="AY52" s="87"/>
       <c r="AZ52" s="87"/>
       <c r="BA52" s="87"/>
@@ -33594,10 +33866,10 @@
       <c r="AR53" s="133"/>
       <c r="AS53" s="133"/>
       <c r="AT53" s="133"/>
-      <c r="AU53" s="143"/>
-      <c r="AV53" s="143"/>
-      <c r="AW53" s="143"/>
-      <c r="AX53" s="143"/>
+      <c r="AU53" s="146"/>
+      <c r="AV53" s="146"/>
+      <c r="AW53" s="146"/>
+      <c r="AX53" s="146"/>
       <c r="AY53" s="135"/>
       <c r="AZ53" s="135"/>
       <c r="BA53" s="135"/>
@@ -33651,10 +33923,10 @@
       <c r="AR54" s="133"/>
       <c r="AS54" s="133"/>
       <c r="AT54" s="133"/>
-      <c r="AU54" s="143"/>
-      <c r="AV54" s="143"/>
-      <c r="AW54" s="143"/>
-      <c r="AX54" s="143"/>
+      <c r="AU54" s="146"/>
+      <c r="AV54" s="146"/>
+      <c r="AW54" s="146"/>
+      <c r="AX54" s="146"/>
       <c r="AY54" s="135"/>
       <c r="AZ54" s="135"/>
       <c r="BA54" s="135"/>
@@ -33708,10 +33980,10 @@
       <c r="AR55" s="85"/>
       <c r="AS55" s="85"/>
       <c r="AT55" s="85"/>
-      <c r="AU55" s="140"/>
-      <c r="AV55" s="140"/>
-      <c r="AW55" s="140"/>
-      <c r="AX55" s="140"/>
+      <c r="AU55" s="143"/>
+      <c r="AV55" s="143"/>
+      <c r="AW55" s="143"/>
+      <c r="AX55" s="143"/>
       <c r="AY55" s="87"/>
       <c r="AZ55" s="87"/>
       <c r="BA55" s="87"/>
@@ -33765,10 +34037,10 @@
       <c r="AR56" s="133"/>
       <c r="AS56" s="133"/>
       <c r="AT56" s="133"/>
-      <c r="AU56" s="143"/>
-      <c r="AV56" s="143"/>
-      <c r="AW56" s="143"/>
-      <c r="AX56" s="143"/>
+      <c r="AU56" s="146"/>
+      <c r="AV56" s="146"/>
+      <c r="AW56" s="146"/>
+      <c r="AX56" s="146"/>
       <c r="AY56" s="135"/>
       <c r="AZ56" s="135"/>
       <c r="BA56" s="135"/>
@@ -33822,10 +34094,10 @@
       <c r="AR57" s="133"/>
       <c r="AS57" s="133"/>
       <c r="AT57" s="133"/>
-      <c r="AU57" s="143"/>
-      <c r="AV57" s="143"/>
-      <c r="AW57" s="143"/>
-      <c r="AX57" s="143"/>
+      <c r="AU57" s="146"/>
+      <c r="AV57" s="146"/>
+      <c r="AW57" s="146"/>
+      <c r="AX57" s="146"/>
       <c r="AY57" s="135"/>
       <c r="AZ57" s="135"/>
       <c r="BA57" s="135"/>
@@ -33879,10 +34151,10 @@
       <c r="AR58" s="133"/>
       <c r="AS58" s="133"/>
       <c r="AT58" s="133"/>
-      <c r="AU58" s="143"/>
-      <c r="AV58" s="143"/>
-      <c r="AW58" s="143"/>
-      <c r="AX58" s="143"/>
+      <c r="AU58" s="146"/>
+      <c r="AV58" s="146"/>
+      <c r="AW58" s="146"/>
+      <c r="AX58" s="146"/>
       <c r="AY58" s="135"/>
       <c r="AZ58" s="135"/>
       <c r="BA58" s="135"/>
@@ -33936,10 +34208,10 @@
       <c r="AR59" s="85"/>
       <c r="AS59" s="85"/>
       <c r="AT59" s="85"/>
-      <c r="AU59" s="140"/>
-      <c r="AV59" s="140"/>
-      <c r="AW59" s="140"/>
-      <c r="AX59" s="140"/>
+      <c r="AU59" s="143"/>
+      <c r="AV59" s="143"/>
+      <c r="AW59" s="143"/>
+      <c r="AX59" s="143"/>
       <c r="AY59" s="87"/>
       <c r="AZ59" s="87"/>
       <c r="BA59" s="87"/>
@@ -33993,10 +34265,10 @@
       <c r="AR60" s="133"/>
       <c r="AS60" s="133"/>
       <c r="AT60" s="133"/>
-      <c r="AU60" s="143"/>
-      <c r="AV60" s="143"/>
-      <c r="AW60" s="143"/>
-      <c r="AX60" s="143"/>
+      <c r="AU60" s="146"/>
+      <c r="AV60" s="146"/>
+      <c r="AW60" s="146"/>
+      <c r="AX60" s="146"/>
       <c r="AY60" s="135"/>
       <c r="AZ60" s="135"/>
       <c r="BA60" s="135"/>
@@ -34050,10 +34322,10 @@
       <c r="AR61" s="133"/>
       <c r="AS61" s="133"/>
       <c r="AT61" s="133"/>
-      <c r="AU61" s="143"/>
-      <c r="AV61" s="143"/>
-      <c r="AW61" s="143"/>
-      <c r="AX61" s="143"/>
+      <c r="AU61" s="146"/>
+      <c r="AV61" s="146"/>
+      <c r="AW61" s="146"/>
+      <c r="AX61" s="146"/>
       <c r="AY61" s="135"/>
       <c r="AZ61" s="135"/>
       <c r="BA61" s="135"/>
@@ -34107,10 +34379,10 @@
       <c r="AR62" s="85"/>
       <c r="AS62" s="85"/>
       <c r="AT62" s="85"/>
-      <c r="AU62" s="140"/>
-      <c r="AV62" s="140"/>
-      <c r="AW62" s="140"/>
-      <c r="AX62" s="140"/>
+      <c r="AU62" s="143"/>
+      <c r="AV62" s="143"/>
+      <c r="AW62" s="143"/>
+      <c r="AX62" s="143"/>
       <c r="AY62" s="87"/>
       <c r="AZ62" s="87"/>
       <c r="BA62" s="87"/>
@@ -34164,10 +34436,10 @@
       <c r="AR63" s="133"/>
       <c r="AS63" s="133"/>
       <c r="AT63" s="133"/>
-      <c r="AU63" s="143"/>
-      <c r="AV63" s="143"/>
-      <c r="AW63" s="143"/>
-      <c r="AX63" s="143"/>
+      <c r="AU63" s="146"/>
+      <c r="AV63" s="146"/>
+      <c r="AW63" s="146"/>
+      <c r="AX63" s="146"/>
       <c r="AY63" s="135"/>
       <c r="AZ63" s="135"/>
       <c r="BA63" s="135"/>
@@ -34221,10 +34493,10 @@
       <c r="AR64" s="133"/>
       <c r="AS64" s="133"/>
       <c r="AT64" s="133"/>
-      <c r="AU64" s="143"/>
-      <c r="AV64" s="143"/>
-      <c r="AW64" s="143"/>
-      <c r="AX64" s="143"/>
+      <c r="AU64" s="146"/>
+      <c r="AV64" s="146"/>
+      <c r="AW64" s="146"/>
+      <c r="AX64" s="146"/>
       <c r="AY64" s="135"/>
       <c r="AZ64" s="135"/>
       <c r="BA64" s="135"/>
@@ -34278,10 +34550,10 @@
       <c r="AR65" s="133"/>
       <c r="AS65" s="133"/>
       <c r="AT65" s="133"/>
-      <c r="AU65" s="143"/>
-      <c r="AV65" s="143"/>
-      <c r="AW65" s="143"/>
-      <c r="AX65" s="143"/>
+      <c r="AU65" s="146"/>
+      <c r="AV65" s="146"/>
+      <c r="AW65" s="146"/>
+      <c r="AX65" s="146"/>
       <c r="AY65" s="135"/>
       <c r="AZ65" s="135"/>
       <c r="BA65" s="135"/>
@@ -34335,10 +34607,10 @@
       <c r="AR66" s="85"/>
       <c r="AS66" s="85"/>
       <c r="AT66" s="85"/>
-      <c r="AU66" s="140"/>
-      <c r="AV66" s="140"/>
-      <c r="AW66" s="140"/>
-      <c r="AX66" s="140"/>
+      <c r="AU66" s="143"/>
+      <c r="AV66" s="143"/>
+      <c r="AW66" s="143"/>
+      <c r="AX66" s="143"/>
       <c r="AY66" s="87"/>
       <c r="AZ66" s="87"/>
       <c r="BA66" s="87"/>
@@ -35028,12 +35300,12 @@
       <c r="AR4" s="102"/>
       <c r="AS4" s="102"/>
       <c r="AT4" s="102"/>
-      <c r="AU4" s="141" t="s">
+      <c r="AU4" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="141"/>
-      <c r="AW4" s="141"/>
-      <c r="AX4" s="141"/>
+      <c r="AV4" s="144"/>
+      <c r="AW4" s="144"/>
+      <c r="AX4" s="144"/>
       <c r="AY4" s="102" t="s">
         <v>16</v>
       </c>
@@ -35093,10 +35365,10 @@
       <c r="AR5" s="101"/>
       <c r="AS5" s="101"/>
       <c r="AT5" s="101"/>
-      <c r="AU5" s="141"/>
-      <c r="AV5" s="141"/>
-      <c r="AW5" s="141"/>
-      <c r="AX5" s="141"/>
+      <c r="AU5" s="144"/>
+      <c r="AV5" s="144"/>
+      <c r="AW5" s="144"/>
+      <c r="AX5" s="144"/>
       <c r="AY5" s="102"/>
       <c r="AZ5" s="102"/>
       <c r="BA5" s="102"/>
@@ -35158,12 +35430,12 @@
       <c r="AR6" s="85"/>
       <c r="AS6" s="85"/>
       <c r="AT6" s="85"/>
-      <c r="AU6" s="140">
+      <c r="AU6" s="143">
         <v>44575</v>
       </c>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="140"/>
-      <c r="AX6" s="140"/>
+      <c r="AV6" s="143"/>
+      <c r="AW6" s="143"/>
+      <c r="AX6" s="143"/>
       <c r="AY6" s="87" t="s">
         <v>475</v>
       </c>
@@ -35227,12 +35499,12 @@
       <c r="AR7" s="85"/>
       <c r="AS7" s="85"/>
       <c r="AT7" s="85"/>
-      <c r="AU7" s="140">
+      <c r="AU7" s="143">
         <v>44575</v>
       </c>
-      <c r="AV7" s="140"/>
-      <c r="AW7" s="140"/>
-      <c r="AX7" s="140"/>
+      <c r="AV7" s="143"/>
+      <c r="AW7" s="143"/>
+      <c r="AX7" s="143"/>
       <c r="AY7" s="87" t="s">
         <v>475</v>
       </c>
@@ -35298,12 +35570,12 @@
       <c r="AR8" s="85"/>
       <c r="AS8" s="85"/>
       <c r="AT8" s="85"/>
-      <c r="AU8" s="140">
+      <c r="AU8" s="143">
         <v>44575</v>
       </c>
-      <c r="AV8" s="140"/>
-      <c r="AW8" s="140"/>
-      <c r="AX8" s="140"/>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
+      <c r="AX8" s="143"/>
       <c r="AY8" s="87" t="s">
         <v>477</v>
       </c>
@@ -35367,12 +35639,12 @@
       <c r="AR9" s="85"/>
       <c r="AS9" s="85"/>
       <c r="AT9" s="85"/>
-      <c r="AU9" s="140">
+      <c r="AU9" s="143">
         <v>44575</v>
       </c>
-      <c r="AV9" s="140"/>
-      <c r="AW9" s="140"/>
-      <c r="AX9" s="140"/>
+      <c r="AV9" s="143"/>
+      <c r="AW9" s="143"/>
+      <c r="AX9" s="143"/>
       <c r="AY9" s="87" t="s">
         <v>477</v>
       </c>
@@ -35438,12 +35710,12 @@
       <c r="AR10" s="85"/>
       <c r="AS10" s="85"/>
       <c r="AT10" s="85"/>
-      <c r="AU10" s="140">
+      <c r="AU10" s="143">
         <v>44575</v>
       </c>
-      <c r="AV10" s="140"/>
-      <c r="AW10" s="140"/>
-      <c r="AX10" s="140"/>
+      <c r="AV10" s="143"/>
+      <c r="AW10" s="143"/>
+      <c r="AX10" s="143"/>
       <c r="AY10" s="87" t="s">
         <v>475</v>
       </c>
@@ -35503,10 +35775,10 @@
       <c r="AR11" s="101"/>
       <c r="AS11" s="101"/>
       <c r="AT11" s="101"/>
-      <c r="AU11" s="141"/>
-      <c r="AV11" s="141"/>
-      <c r="AW11" s="141"/>
-      <c r="AX11" s="141"/>
+      <c r="AU11" s="144"/>
+      <c r="AV11" s="144"/>
+      <c r="AW11" s="144"/>
+      <c r="AX11" s="144"/>
       <c r="AY11" s="102"/>
       <c r="AZ11" s="102"/>
       <c r="BA11" s="102"/>
@@ -35568,12 +35840,12 @@
       <c r="AR12" s="85"/>
       <c r="AS12" s="85"/>
       <c r="AT12" s="85"/>
-      <c r="AU12" s="140">
+      <c r="AU12" s="143">
         <v>44575</v>
       </c>
-      <c r="AV12" s="140"/>
-      <c r="AW12" s="140"/>
-      <c r="AX12" s="140"/>
+      <c r="AV12" s="143"/>
+      <c r="AW12" s="143"/>
+      <c r="AX12" s="143"/>
       <c r="AY12" s="87" t="s">
         <v>475</v>
       </c>
@@ -35637,12 +35909,12 @@
       <c r="AR13" s="85"/>
       <c r="AS13" s="85"/>
       <c r="AT13" s="85"/>
-      <c r="AU13" s="140">
+      <c r="AU13" s="143">
         <v>44575</v>
       </c>
-      <c r="AV13" s="140"/>
-      <c r="AW13" s="140"/>
-      <c r="AX13" s="140"/>
+      <c r="AV13" s="143"/>
+      <c r="AW13" s="143"/>
+      <c r="AX13" s="143"/>
       <c r="AY13" s="87" t="s">
         <v>475</v>
       </c>
@@ -35706,12 +35978,12 @@
       <c r="AR14" s="85"/>
       <c r="AS14" s="85"/>
       <c r="AT14" s="85"/>
-      <c r="AU14" s="140">
+      <c r="AU14" s="143">
         <v>44575</v>
       </c>
-      <c r="AV14" s="140"/>
-      <c r="AW14" s="140"/>
-      <c r="AX14" s="140"/>
+      <c r="AV14" s="143"/>
+      <c r="AW14" s="143"/>
+      <c r="AX14" s="143"/>
       <c r="AY14" s="87" t="s">
         <v>475</v>
       </c>
@@ -35775,12 +36047,12 @@
       <c r="AR15" s="85"/>
       <c r="AS15" s="85"/>
       <c r="AT15" s="85"/>
-      <c r="AU15" s="140">
+      <c r="AU15" s="143">
         <v>44575</v>
       </c>
-      <c r="AV15" s="140"/>
-      <c r="AW15" s="140"/>
-      <c r="AX15" s="140"/>
+      <c r="AV15" s="143"/>
+      <c r="AW15" s="143"/>
+      <c r="AX15" s="143"/>
       <c r="AY15" s="87" t="s">
         <v>475</v>
       </c>
@@ -35844,12 +36116,12 @@
       <c r="AR16" s="85"/>
       <c r="AS16" s="85"/>
       <c r="AT16" s="85"/>
-      <c r="AU16" s="140">
+      <c r="AU16" s="143">
         <v>44575</v>
       </c>
-      <c r="AV16" s="140"/>
-      <c r="AW16" s="140"/>
-      <c r="AX16" s="140"/>
+      <c r="AV16" s="143"/>
+      <c r="AW16" s="143"/>
+      <c r="AX16" s="143"/>
       <c r="AY16" s="87" t="s">
         <v>475</v>
       </c>
@@ -35913,12 +36185,12 @@
       <c r="AR17" s="85"/>
       <c r="AS17" s="85"/>
       <c r="AT17" s="85"/>
-      <c r="AU17" s="140">
+      <c r="AU17" s="143">
         <v>44575</v>
       </c>
-      <c r="AV17" s="140"/>
-      <c r="AW17" s="140"/>
-      <c r="AX17" s="140"/>
+      <c r="AV17" s="143"/>
+      <c r="AW17" s="143"/>
+      <c r="AX17" s="143"/>
       <c r="AY17" s="87" t="s">
         <v>475</v>
       </c>
@@ -35982,12 +36254,12 @@
       <c r="AR18" s="85"/>
       <c r="AS18" s="85"/>
       <c r="AT18" s="85"/>
-      <c r="AU18" s="140">
+      <c r="AU18" s="143">
         <v>44575</v>
       </c>
-      <c r="AV18" s="140"/>
-      <c r="AW18" s="140"/>
-      <c r="AX18" s="140"/>
+      <c r="AV18" s="143"/>
+      <c r="AW18" s="143"/>
+      <c r="AX18" s="143"/>
       <c r="AY18" s="87" t="s">
         <v>475</v>
       </c>
@@ -36051,12 +36323,12 @@
       <c r="AR19" s="85"/>
       <c r="AS19" s="85"/>
       <c r="AT19" s="85"/>
-      <c r="AU19" s="140">
+      <c r="AU19" s="143">
         <v>44575</v>
       </c>
-      <c r="AV19" s="140"/>
-      <c r="AW19" s="140"/>
-      <c r="AX19" s="140"/>
+      <c r="AV19" s="143"/>
+      <c r="AW19" s="143"/>
+      <c r="AX19" s="143"/>
       <c r="AY19" s="87" t="s">
         <v>475</v>
       </c>
@@ -36122,12 +36394,12 @@
       <c r="AR20" s="85"/>
       <c r="AS20" s="85"/>
       <c r="AT20" s="85"/>
-      <c r="AU20" s="140">
+      <c r="AU20" s="143">
         <v>44575</v>
       </c>
-      <c r="AV20" s="140"/>
-      <c r="AW20" s="140"/>
-      <c r="AX20" s="140"/>
+      <c r="AV20" s="143"/>
+      <c r="AW20" s="143"/>
+      <c r="AX20" s="143"/>
       <c r="AY20" s="87" t="s">
         <v>477</v>
       </c>
@@ -36191,12 +36463,12 @@
       <c r="AR21" s="85"/>
       <c r="AS21" s="85"/>
       <c r="AT21" s="85"/>
-      <c r="AU21" s="140">
+      <c r="AU21" s="143">
         <v>44575</v>
       </c>
-      <c r="AV21" s="140"/>
-      <c r="AW21" s="140"/>
-      <c r="AX21" s="140"/>
+      <c r="AV21" s="143"/>
+      <c r="AW21" s="143"/>
+      <c r="AX21" s="143"/>
       <c r="AY21" s="87" t="s">
         <v>477</v>
       </c>
@@ -36260,12 +36532,12 @@
       <c r="AR22" s="85"/>
       <c r="AS22" s="85"/>
       <c r="AT22" s="85"/>
-      <c r="AU22" s="140">
+      <c r="AU22" s="143">
         <v>44575</v>
       </c>
-      <c r="AV22" s="140"/>
-      <c r="AW22" s="140"/>
-      <c r="AX22" s="140"/>
+      <c r="AV22" s="143"/>
+      <c r="AW22" s="143"/>
+      <c r="AX22" s="143"/>
       <c r="AY22" s="87" t="s">
         <v>477</v>
       </c>
@@ -36329,12 +36601,12 @@
       <c r="AR23" s="85"/>
       <c r="AS23" s="85"/>
       <c r="AT23" s="85"/>
-      <c r="AU23" s="140">
+      <c r="AU23" s="143">
         <v>44575</v>
       </c>
-      <c r="AV23" s="140"/>
-      <c r="AW23" s="140"/>
-      <c r="AX23" s="140"/>
+      <c r="AV23" s="143"/>
+      <c r="AW23" s="143"/>
+      <c r="AX23" s="143"/>
       <c r="AY23" s="87" t="s">
         <v>477</v>
       </c>
@@ -36398,12 +36670,12 @@
       <c r="AR24" s="85"/>
       <c r="AS24" s="85"/>
       <c r="AT24" s="85"/>
-      <c r="AU24" s="140">
+      <c r="AU24" s="143">
         <v>44575</v>
       </c>
-      <c r="AV24" s="140"/>
-      <c r="AW24" s="140"/>
-      <c r="AX24" s="140"/>
+      <c r="AV24" s="143"/>
+      <c r="AW24" s="143"/>
+      <c r="AX24" s="143"/>
       <c r="AY24" s="87" t="s">
         <v>477</v>
       </c>
@@ -36467,12 +36739,12 @@
       <c r="AR25" s="85"/>
       <c r="AS25" s="85"/>
       <c r="AT25" s="85"/>
-      <c r="AU25" s="140">
+      <c r="AU25" s="143">
         <v>44575</v>
       </c>
-      <c r="AV25" s="140"/>
-      <c r="AW25" s="140"/>
-      <c r="AX25" s="140"/>
+      <c r="AV25" s="143"/>
+      <c r="AW25" s="143"/>
+      <c r="AX25" s="143"/>
       <c r="AY25" s="87" t="s">
         <v>477</v>
       </c>
@@ -36536,12 +36808,12 @@
       <c r="AR26" s="85"/>
       <c r="AS26" s="85"/>
       <c r="AT26" s="85"/>
-      <c r="AU26" s="140">
+      <c r="AU26" s="143">
         <v>44575</v>
       </c>
-      <c r="AV26" s="140"/>
-      <c r="AW26" s="140"/>
-      <c r="AX26" s="140"/>
+      <c r="AV26" s="143"/>
+      <c r="AW26" s="143"/>
+      <c r="AX26" s="143"/>
       <c r="AY26" s="87" t="s">
         <v>477</v>
       </c>
@@ -36605,12 +36877,12 @@
       <c r="AR27" s="85"/>
       <c r="AS27" s="85"/>
       <c r="AT27" s="85"/>
-      <c r="AU27" s="140">
+      <c r="AU27" s="143">
         <v>44575</v>
       </c>
-      <c r="AV27" s="140"/>
-      <c r="AW27" s="140"/>
-      <c r="AX27" s="140"/>
+      <c r="AV27" s="143"/>
+      <c r="AW27" s="143"/>
+      <c r="AX27" s="143"/>
       <c r="AY27" s="87" t="s">
         <v>477</v>
       </c>
@@ -36670,10 +36942,10 @@
       <c r="AR28" s="101"/>
       <c r="AS28" s="101"/>
       <c r="AT28" s="101"/>
-      <c r="AU28" s="141"/>
-      <c r="AV28" s="141"/>
-      <c r="AW28" s="141"/>
-      <c r="AX28" s="141"/>
+      <c r="AU28" s="144"/>
+      <c r="AV28" s="144"/>
+      <c r="AW28" s="144"/>
+      <c r="AX28" s="144"/>
       <c r="AY28" s="102"/>
       <c r="AZ28" s="102"/>
       <c r="BA28" s="102"/>
@@ -36735,12 +37007,12 @@
       <c r="AR29" s="85"/>
       <c r="AS29" s="85"/>
       <c r="AT29" s="85"/>
-      <c r="AU29" s="140">
+      <c r="AU29" s="143">
         <v>44575</v>
       </c>
-      <c r="AV29" s="140"/>
-      <c r="AW29" s="140"/>
-      <c r="AX29" s="140"/>
+      <c r="AV29" s="143"/>
+      <c r="AW29" s="143"/>
+      <c r="AX29" s="143"/>
       <c r="AY29" s="87" t="s">
         <v>475</v>
       </c>
@@ -36804,12 +37076,12 @@
       <c r="AR30" s="85"/>
       <c r="AS30" s="85"/>
       <c r="AT30" s="85"/>
-      <c r="AU30" s="140">
+      <c r="AU30" s="143">
         <v>44575</v>
       </c>
-      <c r="AV30" s="140"/>
-      <c r="AW30" s="140"/>
-      <c r="AX30" s="140"/>
+      <c r="AV30" s="143"/>
+      <c r="AW30" s="143"/>
+      <c r="AX30" s="143"/>
       <c r="AY30" s="87" t="s">
         <v>475</v>
       </c>
@@ -36869,10 +37141,10 @@
       <c r="AR31" s="101"/>
       <c r="AS31" s="101"/>
       <c r="AT31" s="101"/>
-      <c r="AU31" s="141"/>
-      <c r="AV31" s="141"/>
-      <c r="AW31" s="141"/>
-      <c r="AX31" s="141"/>
+      <c r="AU31" s="144"/>
+      <c r="AV31" s="144"/>
+      <c r="AW31" s="144"/>
+      <c r="AX31" s="144"/>
       <c r="AY31" s="102"/>
       <c r="AZ31" s="102"/>
       <c r="BA31" s="102"/>
@@ -36934,12 +37206,12 @@
       <c r="AR32" s="85"/>
       <c r="AS32" s="85"/>
       <c r="AT32" s="85"/>
-      <c r="AU32" s="140">
+      <c r="AU32" s="143">
         <v>44575</v>
       </c>
-      <c r="AV32" s="140"/>
-      <c r="AW32" s="140"/>
-      <c r="AX32" s="140"/>
+      <c r="AV32" s="143"/>
+      <c r="AW32" s="143"/>
+      <c r="AX32" s="143"/>
       <c r="AY32" s="87" t="s">
         <v>475</v>
       </c>
@@ -36999,10 +37271,10 @@
       <c r="AR33" s="101"/>
       <c r="AS33" s="101"/>
       <c r="AT33" s="101"/>
-      <c r="AU33" s="141"/>
-      <c r="AV33" s="141"/>
-      <c r="AW33" s="141"/>
-      <c r="AX33" s="141"/>
+      <c r="AU33" s="144"/>
+      <c r="AV33" s="144"/>
+      <c r="AW33" s="144"/>
+      <c r="AX33" s="144"/>
       <c r="AY33" s="102"/>
       <c r="AZ33" s="102"/>
       <c r="BA33" s="102"/>
@@ -37064,12 +37336,12 @@
       <c r="AR34" s="85"/>
       <c r="AS34" s="85"/>
       <c r="AT34" s="85"/>
-      <c r="AU34" s="140">
+      <c r="AU34" s="143">
         <v>44575</v>
       </c>
-      <c r="AV34" s="140"/>
-      <c r="AW34" s="140"/>
-      <c r="AX34" s="140"/>
+      <c r="AV34" s="143"/>
+      <c r="AW34" s="143"/>
+      <c r="AX34" s="143"/>
       <c r="AY34" s="87" t="s">
         <v>475</v>
       </c>
@@ -37133,12 +37405,12 @@
       <c r="AR35" s="85"/>
       <c r="AS35" s="85"/>
       <c r="AT35" s="85"/>
-      <c r="AU35" s="140">
+      <c r="AU35" s="143">
         <v>44575</v>
       </c>
-      <c r="AV35" s="140"/>
-      <c r="AW35" s="140"/>
-      <c r="AX35" s="140"/>
+      <c r="AV35" s="143"/>
+      <c r="AW35" s="143"/>
+      <c r="AX35" s="143"/>
       <c r="AY35" s="87" t="s">
         <v>475</v>
       </c>
@@ -37204,12 +37476,12 @@
       <c r="AR36" s="133"/>
       <c r="AS36" s="133"/>
       <c r="AT36" s="133"/>
-      <c r="AU36" s="140">
+      <c r="AU36" s="143">
         <v>44575</v>
       </c>
-      <c r="AV36" s="140"/>
-      <c r="AW36" s="140"/>
-      <c r="AX36" s="140"/>
+      <c r="AV36" s="143"/>
+      <c r="AW36" s="143"/>
+      <c r="AX36" s="143"/>
       <c r="AY36" s="87" t="s">
         <v>475</v>
       </c>
@@ -37273,12 +37545,12 @@
       <c r="AR37" s="133"/>
       <c r="AS37" s="133"/>
       <c r="AT37" s="133"/>
-      <c r="AU37" s="140">
+      <c r="AU37" s="143">
         <v>44575</v>
       </c>
-      <c r="AV37" s="140"/>
-      <c r="AW37" s="140"/>
-      <c r="AX37" s="140"/>
+      <c r="AV37" s="143"/>
+      <c r="AW37" s="143"/>
+      <c r="AX37" s="143"/>
       <c r="AY37" s="87" t="s">
         <v>475</v>
       </c>
@@ -37342,12 +37614,12 @@
       <c r="AR38" s="133"/>
       <c r="AS38" s="133"/>
       <c r="AT38" s="133"/>
-      <c r="AU38" s="140">
+      <c r="AU38" s="143">
         <v>44575</v>
       </c>
-      <c r="AV38" s="140"/>
-      <c r="AW38" s="140"/>
-      <c r="AX38" s="140"/>
+      <c r="AV38" s="143"/>
+      <c r="AW38" s="143"/>
+      <c r="AX38" s="143"/>
       <c r="AY38" s="87" t="s">
         <v>475</v>
       </c>
@@ -37411,12 +37683,12 @@
       <c r="AR39" s="133"/>
       <c r="AS39" s="133"/>
       <c r="AT39" s="133"/>
-      <c r="AU39" s="140">
+      <c r="AU39" s="143">
         <v>44575</v>
       </c>
-      <c r="AV39" s="140"/>
-      <c r="AW39" s="140"/>
-      <c r="AX39" s="140"/>
+      <c r="AV39" s="143"/>
+      <c r="AW39" s="143"/>
+      <c r="AX39" s="143"/>
       <c r="AY39" s="87" t="s">
         <v>475</v>
       </c>
@@ -37480,12 +37752,12 @@
       <c r="AR40" s="133"/>
       <c r="AS40" s="133"/>
       <c r="AT40" s="133"/>
-      <c r="AU40" s="140">
+      <c r="AU40" s="143">
         <v>44575</v>
       </c>
-      <c r="AV40" s="140"/>
-      <c r="AW40" s="140"/>
-      <c r="AX40" s="140"/>
+      <c r="AV40" s="143"/>
+      <c r="AW40" s="143"/>
+      <c r="AX40" s="143"/>
       <c r="AY40" s="87" t="s">
         <v>475</v>
       </c>
@@ -37549,12 +37821,12 @@
       <c r="AR41" s="133"/>
       <c r="AS41" s="133"/>
       <c r="AT41" s="133"/>
-      <c r="AU41" s="140">
+      <c r="AU41" s="143">
         <v>44575</v>
       </c>
-      <c r="AV41" s="140"/>
-      <c r="AW41" s="140"/>
-      <c r="AX41" s="140"/>
+      <c r="AV41" s="143"/>
+      <c r="AW41" s="143"/>
+      <c r="AX41" s="143"/>
       <c r="AY41" s="87" t="s">
         <v>475</v>
       </c>
@@ -37618,12 +37890,12 @@
       <c r="AR42" s="133"/>
       <c r="AS42" s="133"/>
       <c r="AT42" s="133"/>
-      <c r="AU42" s="140">
+      <c r="AU42" s="143">
         <v>44575</v>
       </c>
-      <c r="AV42" s="140"/>
-      <c r="AW42" s="140"/>
-      <c r="AX42" s="140"/>
+      <c r="AV42" s="143"/>
+      <c r="AW42" s="143"/>
+      <c r="AX42" s="143"/>
       <c r="AY42" s="87" t="s">
         <v>475</v>
       </c>
@@ -37687,12 +37959,12 @@
       <c r="AR43" s="133"/>
       <c r="AS43" s="133"/>
       <c r="AT43" s="133"/>
-      <c r="AU43" s="140">
+      <c r="AU43" s="143">
         <v>44575</v>
       </c>
-      <c r="AV43" s="140"/>
-      <c r="AW43" s="140"/>
-      <c r="AX43" s="140"/>
+      <c r="AV43" s="143"/>
+      <c r="AW43" s="143"/>
+      <c r="AX43" s="143"/>
       <c r="AY43" s="87" t="s">
         <v>475</v>
       </c>
@@ -37756,12 +38028,12 @@
       <c r="AR44" s="133"/>
       <c r="AS44" s="133"/>
       <c r="AT44" s="133"/>
-      <c r="AU44" s="140">
+      <c r="AU44" s="143">
         <v>44575</v>
       </c>
-      <c r="AV44" s="140"/>
-      <c r="AW44" s="140"/>
-      <c r="AX44" s="140"/>
+      <c r="AV44" s="143"/>
+      <c r="AW44" s="143"/>
+      <c r="AX44" s="143"/>
       <c r="AY44" s="87" t="s">
         <v>475</v>
       </c>
@@ -37825,12 +38097,12 @@
       <c r="AR45" s="85"/>
       <c r="AS45" s="85"/>
       <c r="AT45" s="85"/>
-      <c r="AU45" s="140">
+      <c r="AU45" s="143">
         <v>44575</v>
       </c>
-      <c r="AV45" s="140"/>
-      <c r="AW45" s="140"/>
-      <c r="AX45" s="140"/>
+      <c r="AV45" s="143"/>
+      <c r="AW45" s="143"/>
+      <c r="AX45" s="143"/>
       <c r="AY45" s="87" t="s">
         <v>475</v>
       </c>
@@ -37896,10 +38168,10 @@
       <c r="AR46" s="97"/>
       <c r="AS46" s="97"/>
       <c r="AT46" s="97"/>
-      <c r="AU46" s="140"/>
-      <c r="AV46" s="140"/>
-      <c r="AW46" s="140"/>
-      <c r="AX46" s="140"/>
+      <c r="AU46" s="143"/>
+      <c r="AV46" s="143"/>
+      <c r="AW46" s="143"/>
+      <c r="AX46" s="143"/>
       <c r="AY46" s="87"/>
       <c r="AZ46" s="87"/>
       <c r="BA46" s="87"/>
@@ -37959,12 +38231,12 @@
       <c r="AR47" s="85"/>
       <c r="AS47" s="85"/>
       <c r="AT47" s="85"/>
-      <c r="AU47" s="140">
+      <c r="AU47" s="143">
         <v>44575</v>
       </c>
-      <c r="AV47" s="140"/>
-      <c r="AW47" s="140"/>
-      <c r="AX47" s="140"/>
+      <c r="AV47" s="143"/>
+      <c r="AW47" s="143"/>
+      <c r="AX47" s="143"/>
       <c r="AY47" s="87" t="s">
         <v>475</v>
       </c>
@@ -38028,10 +38300,10 @@
       <c r="AR48" s="97"/>
       <c r="AS48" s="97"/>
       <c r="AT48" s="97"/>
-      <c r="AU48" s="140"/>
-      <c r="AV48" s="140"/>
-      <c r="AW48" s="140"/>
-      <c r="AX48" s="140"/>
+      <c r="AU48" s="143"/>
+      <c r="AV48" s="143"/>
+      <c r="AW48" s="143"/>
+      <c r="AX48" s="143"/>
       <c r="AY48" s="87"/>
       <c r="AZ48" s="87"/>
       <c r="BA48" s="87"/>
@@ -38093,10 +38365,10 @@
       <c r="AR49" s="97"/>
       <c r="AS49" s="97"/>
       <c r="AT49" s="97"/>
-      <c r="AU49" s="140"/>
-      <c r="AV49" s="140"/>
-      <c r="AW49" s="140"/>
-      <c r="AX49" s="140"/>
+      <c r="AU49" s="143"/>
+      <c r="AV49" s="143"/>
+      <c r="AW49" s="143"/>
+      <c r="AX49" s="143"/>
       <c r="AY49" s="87"/>
       <c r="AZ49" s="87"/>
       <c r="BA49" s="87"/>
@@ -38156,12 +38428,12 @@
       <c r="AR50" s="85"/>
       <c r="AS50" s="85"/>
       <c r="AT50" s="85"/>
-      <c r="AU50" s="140">
+      <c r="AU50" s="143">
         <v>44575</v>
       </c>
-      <c r="AV50" s="140"/>
-      <c r="AW50" s="140"/>
-      <c r="AX50" s="140"/>
+      <c r="AV50" s="143"/>
+      <c r="AW50" s="143"/>
+      <c r="AX50" s="143"/>
       <c r="AY50" s="87" t="s">
         <v>475</v>
       </c>
@@ -38225,12 +38497,12 @@
       <c r="AR51" s="85"/>
       <c r="AS51" s="85"/>
       <c r="AT51" s="85"/>
-      <c r="AU51" s="140">
+      <c r="AU51" s="143">
         <v>44575</v>
       </c>
-      <c r="AV51" s="140"/>
-      <c r="AW51" s="140"/>
-      <c r="AX51" s="140"/>
+      <c r="AV51" s="143"/>
+      <c r="AW51" s="143"/>
+      <c r="AX51" s="143"/>
       <c r="AY51" s="87" t="s">
         <v>475</v>
       </c>
@@ -38294,10 +38566,10 @@
       <c r="AR52" s="97"/>
       <c r="AS52" s="97"/>
       <c r="AT52" s="97"/>
-      <c r="AU52" s="140"/>
-      <c r="AV52" s="140"/>
-      <c r="AW52" s="140"/>
-      <c r="AX52" s="140"/>
+      <c r="AU52" s="143"/>
+      <c r="AV52" s="143"/>
+      <c r="AW52" s="143"/>
+      <c r="AX52" s="143"/>
       <c r="AY52" s="87"/>
       <c r="AZ52" s="87"/>
       <c r="BA52" s="87"/>
@@ -38359,12 +38631,12 @@
       <c r="AR53" s="85"/>
       <c r="AS53" s="85"/>
       <c r="AT53" s="85"/>
-      <c r="AU53" s="140">
+      <c r="AU53" s="143">
         <v>44575</v>
       </c>
-      <c r="AV53" s="140"/>
-      <c r="AW53" s="140"/>
-      <c r="AX53" s="140"/>
+      <c r="AV53" s="143"/>
+      <c r="AW53" s="143"/>
+      <c r="AX53" s="143"/>
       <c r="AY53" s="87" t="s">
         <v>475</v>
       </c>
@@ -38428,12 +38700,12 @@
       <c r="AR54" s="85"/>
       <c r="AS54" s="85"/>
       <c r="AT54" s="85"/>
-      <c r="AU54" s="140">
+      <c r="AU54" s="143">
         <v>44575</v>
       </c>
-      <c r="AV54" s="140"/>
-      <c r="AW54" s="140"/>
-      <c r="AX54" s="140"/>
+      <c r="AV54" s="143"/>
+      <c r="AW54" s="143"/>
+      <c r="AX54" s="143"/>
       <c r="AY54" s="87" t="s">
         <v>475</v>
       </c>
@@ -38499,10 +38771,10 @@
       <c r="AR55" s="133"/>
       <c r="AS55" s="133"/>
       <c r="AT55" s="133"/>
-      <c r="AU55" s="143"/>
-      <c r="AV55" s="143"/>
-      <c r="AW55" s="143"/>
-      <c r="AX55" s="143"/>
+      <c r="AU55" s="146"/>
+      <c r="AV55" s="146"/>
+      <c r="AW55" s="146"/>
+      <c r="AX55" s="146"/>
       <c r="AY55" s="135"/>
       <c r="AZ55" s="135"/>
       <c r="BA55" s="135"/>
@@ -38562,10 +38834,10 @@
       <c r="AR56" s="133"/>
       <c r="AS56" s="133"/>
       <c r="AT56" s="133"/>
-      <c r="AU56" s="143"/>
-      <c r="AV56" s="143"/>
-      <c r="AW56" s="143"/>
-      <c r="AX56" s="143"/>
+      <c r="AU56" s="146"/>
+      <c r="AV56" s="146"/>
+      <c r="AW56" s="146"/>
+      <c r="AX56" s="146"/>
       <c r="AY56" s="135"/>
       <c r="AZ56" s="135"/>
       <c r="BA56" s="135"/>
@@ -38625,12 +38897,12 @@
       <c r="AR57" s="133"/>
       <c r="AS57" s="133"/>
       <c r="AT57" s="133"/>
-      <c r="AU57" s="140">
+      <c r="AU57" s="143">
         <v>44575</v>
       </c>
-      <c r="AV57" s="140"/>
-      <c r="AW57" s="140"/>
-      <c r="AX57" s="140"/>
+      <c r="AV57" s="143"/>
+      <c r="AW57" s="143"/>
+      <c r="AX57" s="143"/>
       <c r="AY57" s="87" t="s">
         <v>475</v>
       </c>
@@ -38694,12 +38966,12 @@
       <c r="AR58" s="85"/>
       <c r="AS58" s="85"/>
       <c r="AT58" s="85"/>
-      <c r="AU58" s="140">
+      <c r="AU58" s="143">
         <v>44575</v>
       </c>
-      <c r="AV58" s="140"/>
-      <c r="AW58" s="140"/>
-      <c r="AX58" s="140"/>
+      <c r="AV58" s="143"/>
+      <c r="AW58" s="143"/>
+      <c r="AX58" s="143"/>
       <c r="AY58" s="87" t="s">
         <v>475</v>
       </c>
@@ -38763,12 +39035,12 @@
       <c r="AR59" s="133"/>
       <c r="AS59" s="133"/>
       <c r="AT59" s="133"/>
-      <c r="AU59" s="140">
+      <c r="AU59" s="143">
         <v>44575</v>
       </c>
-      <c r="AV59" s="140"/>
-      <c r="AW59" s="140"/>
-      <c r="AX59" s="140"/>
+      <c r="AV59" s="143"/>
+      <c r="AW59" s="143"/>
+      <c r="AX59" s="143"/>
       <c r="AY59" s="87" t="s">
         <v>475</v>
       </c>
@@ -38832,12 +39104,12 @@
       <c r="AR60" s="133"/>
       <c r="AS60" s="133"/>
       <c r="AT60" s="133"/>
-      <c r="AU60" s="140">
+      <c r="AU60" s="143">
         <v>44575</v>
       </c>
-      <c r="AV60" s="140"/>
-      <c r="AW60" s="140"/>
-      <c r="AX60" s="140"/>
+      <c r="AV60" s="143"/>
+      <c r="AW60" s="143"/>
+      <c r="AX60" s="143"/>
       <c r="AY60" s="87" t="s">
         <v>475</v>
       </c>
@@ -38903,12 +39175,12 @@
       <c r="AR61" s="85"/>
       <c r="AS61" s="85"/>
       <c r="AT61" s="85"/>
-      <c r="AU61" s="140">
+      <c r="AU61" s="143">
         <v>44575</v>
       </c>
-      <c r="AV61" s="140"/>
-      <c r="AW61" s="140"/>
-      <c r="AX61" s="140"/>
+      <c r="AV61" s="143"/>
+      <c r="AW61" s="143"/>
+      <c r="AX61" s="143"/>
       <c r="AY61" s="87" t="s">
         <v>475</v>
       </c>
@@ -38972,12 +39244,12 @@
       <c r="AR62" s="85"/>
       <c r="AS62" s="85"/>
       <c r="AT62" s="85"/>
-      <c r="AU62" s="140">
+      <c r="AU62" s="143">
         <v>44575</v>
       </c>
-      <c r="AV62" s="140"/>
-      <c r="AW62" s="140"/>
-      <c r="AX62" s="140"/>
+      <c r="AV62" s="143"/>
+      <c r="AW62" s="143"/>
+      <c r="AX62" s="143"/>
       <c r="AY62" s="87" t="s">
         <v>475</v>
       </c>
@@ -39037,10 +39309,10 @@
       <c r="AR63" s="101"/>
       <c r="AS63" s="101"/>
       <c r="AT63" s="101"/>
-      <c r="AU63" s="141"/>
-      <c r="AV63" s="141"/>
-      <c r="AW63" s="141"/>
-      <c r="AX63" s="141"/>
+      <c r="AU63" s="144"/>
+      <c r="AV63" s="144"/>
+      <c r="AW63" s="144"/>
+      <c r="AX63" s="144"/>
       <c r="AY63" s="102"/>
       <c r="AZ63" s="102"/>
       <c r="BA63" s="102"/>
@@ -39102,12 +39374,12 @@
       <c r="AR64" s="85"/>
       <c r="AS64" s="85"/>
       <c r="AT64" s="85"/>
-      <c r="AU64" s="140">
+      <c r="AU64" s="143">
         <v>44575</v>
       </c>
-      <c r="AV64" s="140"/>
-      <c r="AW64" s="140"/>
-      <c r="AX64" s="140"/>
+      <c r="AV64" s="143"/>
+      <c r="AW64" s="143"/>
+      <c r="AX64" s="143"/>
       <c r="AY64" s="87" t="s">
         <v>475</v>
       </c>
@@ -39171,12 +39443,12 @@
       <c r="AR65" s="85"/>
       <c r="AS65" s="85"/>
       <c r="AT65" s="85"/>
-      <c r="AU65" s="140">
+      <c r="AU65" s="143">
         <v>44575</v>
       </c>
-      <c r="AV65" s="140"/>
-      <c r="AW65" s="140"/>
-      <c r="AX65" s="140"/>
+      <c r="AV65" s="143"/>
+      <c r="AW65" s="143"/>
+      <c r="AX65" s="143"/>
       <c r="AY65" s="87" t="s">
         <v>475</v>
       </c>
@@ -39242,12 +39514,12 @@
       <c r="AR66" s="85"/>
       <c r="AS66" s="85"/>
       <c r="AT66" s="85"/>
-      <c r="AU66" s="140">
+      <c r="AU66" s="143">
         <v>44575</v>
       </c>
-      <c r="AV66" s="140"/>
-      <c r="AW66" s="140"/>
-      <c r="AX66" s="140"/>
+      <c r="AV66" s="143"/>
+      <c r="AW66" s="143"/>
+      <c r="AX66" s="143"/>
       <c r="AY66" s="87" t="s">
         <v>475</v>
       </c>
@@ -39311,12 +39583,12 @@
       <c r="AR67" s="133"/>
       <c r="AS67" s="133"/>
       <c r="AT67" s="133"/>
-      <c r="AU67" s="140">
+      <c r="AU67" s="143">
         <v>44575</v>
       </c>
-      <c r="AV67" s="140"/>
-      <c r="AW67" s="140"/>
-      <c r="AX67" s="140"/>
+      <c r="AV67" s="143"/>
+      <c r="AW67" s="143"/>
+      <c r="AX67" s="143"/>
       <c r="AY67" s="87" t="s">
         <v>475</v>
       </c>
@@ -39382,12 +39654,12 @@
       <c r="AR68" s="85"/>
       <c r="AS68" s="85"/>
       <c r="AT68" s="85"/>
-      <c r="AU68" s="140">
+      <c r="AU68" s="143">
         <v>44575</v>
       </c>
-      <c r="AV68" s="140"/>
-      <c r="AW68" s="140"/>
-      <c r="AX68" s="140"/>
+      <c r="AV68" s="143"/>
+      <c r="AW68" s="143"/>
+      <c r="AX68" s="143"/>
       <c r="AY68" s="87" t="s">
         <v>475</v>
       </c>
@@ -39451,12 +39723,12 @@
       <c r="AR69" s="133"/>
       <c r="AS69" s="133"/>
       <c r="AT69" s="133"/>
-      <c r="AU69" s="140">
+      <c r="AU69" s="143">
         <v>44575</v>
       </c>
-      <c r="AV69" s="140"/>
-      <c r="AW69" s="140"/>
-      <c r="AX69" s="140"/>
+      <c r="AV69" s="143"/>
+      <c r="AW69" s="143"/>
+      <c r="AX69" s="143"/>
       <c r="AY69" s="87" t="s">
         <v>475</v>
       </c>
@@ -39522,12 +39794,12 @@
       <c r="AR70" s="133"/>
       <c r="AS70" s="133"/>
       <c r="AT70" s="133"/>
-      <c r="AU70" s="140">
+      <c r="AU70" s="143">
         <v>44575</v>
       </c>
-      <c r="AV70" s="140"/>
-      <c r="AW70" s="140"/>
-      <c r="AX70" s="140"/>
+      <c r="AV70" s="143"/>
+      <c r="AW70" s="143"/>
+      <c r="AX70" s="143"/>
       <c r="AY70" s="87" t="s">
         <v>475</v>
       </c>
@@ -39593,12 +39865,12 @@
       <c r="AR71" s="133"/>
       <c r="AS71" s="133"/>
       <c r="AT71" s="133"/>
-      <c r="AU71" s="140">
+      <c r="AU71" s="143">
         <v>44575</v>
       </c>
-      <c r="AV71" s="140"/>
-      <c r="AW71" s="140"/>
-      <c r="AX71" s="140"/>
+      <c r="AV71" s="143"/>
+      <c r="AW71" s="143"/>
+      <c r="AX71" s="143"/>
       <c r="AY71" s="87" t="s">
         <v>475</v>
       </c>
@@ -39658,10 +39930,10 @@
       <c r="AR72" s="101"/>
       <c r="AS72" s="101"/>
       <c r="AT72" s="101"/>
-      <c r="AU72" s="141"/>
-      <c r="AV72" s="141"/>
-      <c r="AW72" s="141"/>
-      <c r="AX72" s="141"/>
+      <c r="AU72" s="144"/>
+      <c r="AV72" s="144"/>
+      <c r="AW72" s="144"/>
+      <c r="AX72" s="144"/>
       <c r="AY72" s="102"/>
       <c r="AZ72" s="102"/>
       <c r="BA72" s="102"/>
@@ -39723,12 +39995,12 @@
       <c r="AR73" s="85"/>
       <c r="AS73" s="85"/>
       <c r="AT73" s="85"/>
-      <c r="AU73" s="140">
+      <c r="AU73" s="143">
         <v>44575</v>
       </c>
-      <c r="AV73" s="140"/>
-      <c r="AW73" s="140"/>
-      <c r="AX73" s="140"/>
+      <c r="AV73" s="143"/>
+      <c r="AW73" s="143"/>
+      <c r="AX73" s="143"/>
       <c r="AY73" s="87" t="s">
         <v>475</v>
       </c>
@@ -39792,12 +40064,12 @@
       <c r="AR74" s="85"/>
       <c r="AS74" s="85"/>
       <c r="AT74" s="85"/>
-      <c r="AU74" s="140">
+      <c r="AU74" s="143">
         <v>44575</v>
       </c>
-      <c r="AV74" s="140"/>
-      <c r="AW74" s="140"/>
-      <c r="AX74" s="140"/>
+      <c r="AV74" s="143"/>
+      <c r="AW74" s="143"/>
+      <c r="AX74" s="143"/>
       <c r="AY74" s="87" t="s">
         <v>475</v>
       </c>
@@ -39863,12 +40135,12 @@
       <c r="AR75" s="85"/>
       <c r="AS75" s="85"/>
       <c r="AT75" s="85"/>
-      <c r="AU75" s="140">
+      <c r="AU75" s="143">
         <v>44575</v>
       </c>
-      <c r="AV75" s="140"/>
-      <c r="AW75" s="140"/>
-      <c r="AX75" s="140"/>
+      <c r="AV75" s="143"/>
+      <c r="AW75" s="143"/>
+      <c r="AX75" s="143"/>
       <c r="AY75" s="87" t="s">
         <v>475</v>
       </c>
@@ -39932,12 +40204,12 @@
       <c r="AR76" s="133"/>
       <c r="AS76" s="133"/>
       <c r="AT76" s="133"/>
-      <c r="AU76" s="140">
+      <c r="AU76" s="143">
         <v>44575</v>
       </c>
-      <c r="AV76" s="140"/>
-      <c r="AW76" s="140"/>
-      <c r="AX76" s="140"/>
+      <c r="AV76" s="143"/>
+      <c r="AW76" s="143"/>
+      <c r="AX76" s="143"/>
       <c r="AY76" s="87" t="s">
         <v>475</v>
       </c>
@@ -40003,12 +40275,12 @@
       <c r="AR77" s="85"/>
       <c r="AS77" s="85"/>
       <c r="AT77" s="85"/>
-      <c r="AU77" s="140">
+      <c r="AU77" s="143">
         <v>44575</v>
       </c>
-      <c r="AV77" s="140"/>
-      <c r="AW77" s="140"/>
-      <c r="AX77" s="140"/>
+      <c r="AV77" s="143"/>
+      <c r="AW77" s="143"/>
+      <c r="AX77" s="143"/>
       <c r="AY77" s="87" t="s">
         <v>475</v>
       </c>
@@ -40072,12 +40344,12 @@
       <c r="AR78" s="133"/>
       <c r="AS78" s="133"/>
       <c r="AT78" s="133"/>
-      <c r="AU78" s="140">
+      <c r="AU78" s="143">
         <v>44575</v>
       </c>
-      <c r="AV78" s="140"/>
-      <c r="AW78" s="140"/>
-      <c r="AX78" s="140"/>
+      <c r="AV78" s="143"/>
+      <c r="AW78" s="143"/>
+      <c r="AX78" s="143"/>
       <c r="AY78" s="87" t="s">
         <v>475</v>
       </c>
@@ -40143,12 +40415,12 @@
       <c r="AR79" s="133"/>
       <c r="AS79" s="133"/>
       <c r="AT79" s="133"/>
-      <c r="AU79" s="140">
+      <c r="AU79" s="143">
         <v>44575</v>
       </c>
-      <c r="AV79" s="140"/>
-      <c r="AW79" s="140"/>
-      <c r="AX79" s="140"/>
+      <c r="AV79" s="143"/>
+      <c r="AW79" s="143"/>
+      <c r="AX79" s="143"/>
       <c r="AY79" s="87" t="s">
         <v>475</v>
       </c>
@@ -40214,12 +40486,12 @@
       <c r="AR80" s="133"/>
       <c r="AS80" s="133"/>
       <c r="AT80" s="133"/>
-      <c r="AU80" s="140">
+      <c r="AU80" s="143">
         <v>44575</v>
       </c>
-      <c r="AV80" s="140"/>
-      <c r="AW80" s="140"/>
-      <c r="AX80" s="140"/>
+      <c r="AV80" s="143"/>
+      <c r="AW80" s="143"/>
+      <c r="AX80" s="143"/>
       <c r="AY80" s="87" t="s">
         <v>475</v>
       </c>
@@ -40277,10 +40549,10 @@
       <c r="AR81" s="133"/>
       <c r="AS81" s="133"/>
       <c r="AT81" s="133"/>
-      <c r="AU81" s="143"/>
-      <c r="AV81" s="143"/>
-      <c r="AW81" s="143"/>
-      <c r="AX81" s="143"/>
+      <c r="AU81" s="146"/>
+      <c r="AV81" s="146"/>
+      <c r="AW81" s="146"/>
+      <c r="AX81" s="146"/>
       <c r="AY81" s="135"/>
       <c r="AZ81" s="135"/>
       <c r="BA81" s="135"/>
@@ -40334,10 +40606,10 @@
       <c r="AR82" s="133"/>
       <c r="AS82" s="133"/>
       <c r="AT82" s="133"/>
-      <c r="AU82" s="143"/>
-      <c r="AV82" s="143"/>
-      <c r="AW82" s="143"/>
-      <c r="AX82" s="143"/>
+      <c r="AU82" s="146"/>
+      <c r="AV82" s="146"/>
+      <c r="AW82" s="146"/>
+      <c r="AX82" s="146"/>
       <c r="AY82" s="135"/>
       <c r="AZ82" s="135"/>
       <c r="BA82" s="135"/>
@@ -40391,10 +40663,10 @@
       <c r="AR83" s="133"/>
       <c r="AS83" s="133"/>
       <c r="AT83" s="133"/>
-      <c r="AU83" s="143"/>
-      <c r="AV83" s="143"/>
-      <c r="AW83" s="143"/>
-      <c r="AX83" s="143"/>
+      <c r="AU83" s="146"/>
+      <c r="AV83" s="146"/>
+      <c r="AW83" s="146"/>
+      <c r="AX83" s="146"/>
       <c r="AY83" s="135"/>
       <c r="AZ83" s="135"/>
       <c r="BA83" s="135"/>
@@ -40448,10 +40720,10 @@
       <c r="AR84" s="85"/>
       <c r="AS84" s="85"/>
       <c r="AT84" s="85"/>
-      <c r="AU84" s="140"/>
-      <c r="AV84" s="140"/>
-      <c r="AW84" s="140"/>
-      <c r="AX84" s="140"/>
+      <c r="AU84" s="143"/>
+      <c r="AV84" s="143"/>
+      <c r="AW84" s="143"/>
+      <c r="AX84" s="143"/>
       <c r="AY84" s="87"/>
       <c r="AZ84" s="87"/>
       <c r="BA84" s="87"/>
@@ -40505,10 +40777,10 @@
       <c r="AR85" s="133"/>
       <c r="AS85" s="133"/>
       <c r="AT85" s="133"/>
-      <c r="AU85" s="143"/>
-      <c r="AV85" s="143"/>
-      <c r="AW85" s="143"/>
-      <c r="AX85" s="143"/>
+      <c r="AU85" s="146"/>
+      <c r="AV85" s="146"/>
+      <c r="AW85" s="146"/>
+      <c r="AX85" s="146"/>
       <c r="AY85" s="135"/>
       <c r="AZ85" s="135"/>
       <c r="BA85" s="135"/>
@@ -40562,10 +40834,10 @@
       <c r="AR86" s="133"/>
       <c r="AS86" s="133"/>
       <c r="AT86" s="133"/>
-      <c r="AU86" s="143"/>
-      <c r="AV86" s="143"/>
-      <c r="AW86" s="143"/>
-      <c r="AX86" s="143"/>
+      <c r="AU86" s="146"/>
+      <c r="AV86" s="146"/>
+      <c r="AW86" s="146"/>
+      <c r="AX86" s="146"/>
       <c r="AY86" s="135"/>
       <c r="AZ86" s="135"/>
       <c r="BA86" s="135"/>
@@ -40619,10 +40891,10 @@
       <c r="AR87" s="133"/>
       <c r="AS87" s="133"/>
       <c r="AT87" s="133"/>
-      <c r="AU87" s="143"/>
-      <c r="AV87" s="143"/>
-      <c r="AW87" s="143"/>
-      <c r="AX87" s="143"/>
+      <c r="AU87" s="146"/>
+      <c r="AV87" s="146"/>
+      <c r="AW87" s="146"/>
+      <c r="AX87" s="146"/>
       <c r="AY87" s="135"/>
       <c r="AZ87" s="135"/>
       <c r="BA87" s="135"/>
@@ -40676,10 +40948,10 @@
       <c r="AR88" s="85"/>
       <c r="AS88" s="85"/>
       <c r="AT88" s="85"/>
-      <c r="AU88" s="140"/>
-      <c r="AV88" s="140"/>
-      <c r="AW88" s="140"/>
-      <c r="AX88" s="140"/>
+      <c r="AU88" s="143"/>
+      <c r="AV88" s="143"/>
+      <c r="AW88" s="143"/>
+      <c r="AX88" s="143"/>
       <c r="AY88" s="87"/>
       <c r="AZ88" s="87"/>
       <c r="BA88" s="87"/>
@@ -40733,10 +41005,10 @@
       <c r="AR89" s="133"/>
       <c r="AS89" s="133"/>
       <c r="AT89" s="133"/>
-      <c r="AU89" s="143"/>
-      <c r="AV89" s="143"/>
-      <c r="AW89" s="143"/>
-      <c r="AX89" s="143"/>
+      <c r="AU89" s="146"/>
+      <c r="AV89" s="146"/>
+      <c r="AW89" s="146"/>
+      <c r="AX89" s="146"/>
       <c r="AY89" s="135"/>
       <c r="AZ89" s="135"/>
       <c r="BA89" s="135"/>
@@ -40790,10 +41062,10 @@
       <c r="AR90" s="133"/>
       <c r="AS90" s="133"/>
       <c r="AT90" s="133"/>
-      <c r="AU90" s="143"/>
-      <c r="AV90" s="143"/>
-      <c r="AW90" s="143"/>
-      <c r="AX90" s="143"/>
+      <c r="AU90" s="146"/>
+      <c r="AV90" s="146"/>
+      <c r="AW90" s="146"/>
+      <c r="AX90" s="146"/>
       <c r="AY90" s="135"/>
       <c r="AZ90" s="135"/>
       <c r="BA90" s="135"/>
@@ -40847,10 +41119,10 @@
       <c r="AR91" s="133"/>
       <c r="AS91" s="133"/>
       <c r="AT91" s="133"/>
-      <c r="AU91" s="143"/>
-      <c r="AV91" s="143"/>
-      <c r="AW91" s="143"/>
-      <c r="AX91" s="143"/>
+      <c r="AU91" s="146"/>
+      <c r="AV91" s="146"/>
+      <c r="AW91" s="146"/>
+      <c r="AX91" s="146"/>
       <c r="AY91" s="135"/>
       <c r="AZ91" s="135"/>
       <c r="BA91" s="135"/>
@@ -40904,10 +41176,10 @@
       <c r="AR92" s="85"/>
       <c r="AS92" s="85"/>
       <c r="AT92" s="85"/>
-      <c r="AU92" s="140"/>
-      <c r="AV92" s="140"/>
-      <c r="AW92" s="140"/>
-      <c r="AX92" s="140"/>
+      <c r="AU92" s="143"/>
+      <c r="AV92" s="143"/>
+      <c r="AW92" s="143"/>
+      <c r="AX92" s="143"/>
       <c r="AY92" s="87"/>
       <c r="AZ92" s="87"/>
       <c r="BA92" s="87"/>
@@ -40961,10 +41233,10 @@
       <c r="AR93" s="133"/>
       <c r="AS93" s="133"/>
       <c r="AT93" s="133"/>
-      <c r="AU93" s="143"/>
-      <c r="AV93" s="143"/>
-      <c r="AW93" s="143"/>
-      <c r="AX93" s="143"/>
+      <c r="AU93" s="146"/>
+      <c r="AV93" s="146"/>
+      <c r="AW93" s="146"/>
+      <c r="AX93" s="146"/>
       <c r="AY93" s="135"/>
       <c r="AZ93" s="135"/>
       <c r="BA93" s="135"/>
@@ -41018,10 +41290,10 @@
       <c r="AR94" s="133"/>
       <c r="AS94" s="133"/>
       <c r="AT94" s="133"/>
-      <c r="AU94" s="143"/>
-      <c r="AV94" s="143"/>
-      <c r="AW94" s="143"/>
-      <c r="AX94" s="143"/>
+      <c r="AU94" s="146"/>
+      <c r="AV94" s="146"/>
+      <c r="AW94" s="146"/>
+      <c r="AX94" s="146"/>
       <c r="AY94" s="135"/>
       <c r="AZ94" s="135"/>
       <c r="BA94" s="135"/>
@@ -41075,10 +41347,10 @@
       <c r="AR95" s="133"/>
       <c r="AS95" s="133"/>
       <c r="AT95" s="133"/>
-      <c r="AU95" s="143"/>
-      <c r="AV95" s="143"/>
-      <c r="AW95" s="143"/>
-      <c r="AX95" s="143"/>
+      <c r="AU95" s="146"/>
+      <c r="AV95" s="146"/>
+      <c r="AW95" s="146"/>
+      <c r="AX95" s="146"/>
       <c r="AY95" s="135"/>
       <c r="AZ95" s="135"/>
       <c r="BA95" s="135"/>
@@ -41132,10 +41404,10 @@
       <c r="AR96" s="85"/>
       <c r="AS96" s="85"/>
       <c r="AT96" s="85"/>
-      <c r="AU96" s="140"/>
-      <c r="AV96" s="140"/>
-      <c r="AW96" s="140"/>
-      <c r="AX96" s="140"/>
+      <c r="AU96" s="143"/>
+      <c r="AV96" s="143"/>
+      <c r="AW96" s="143"/>
+      <c r="AX96" s="143"/>
       <c r="AY96" s="87"/>
       <c r="AZ96" s="87"/>
       <c r="BA96" s="87"/>
@@ -41189,10 +41461,10 @@
       <c r="AR97" s="133"/>
       <c r="AS97" s="133"/>
       <c r="AT97" s="133"/>
-      <c r="AU97" s="143"/>
-      <c r="AV97" s="143"/>
-      <c r="AW97" s="143"/>
-      <c r="AX97" s="143"/>
+      <c r="AU97" s="146"/>
+      <c r="AV97" s="146"/>
+      <c r="AW97" s="146"/>
+      <c r="AX97" s="146"/>
       <c r="AY97" s="135"/>
       <c r="AZ97" s="135"/>
       <c r="BA97" s="135"/>
@@ -41246,10 +41518,10 @@
       <c r="AR98" s="133"/>
       <c r="AS98" s="133"/>
       <c r="AT98" s="133"/>
-      <c r="AU98" s="143"/>
-      <c r="AV98" s="143"/>
-      <c r="AW98" s="143"/>
-      <c r="AX98" s="143"/>
+      <c r="AU98" s="146"/>
+      <c r="AV98" s="146"/>
+      <c r="AW98" s="146"/>
+      <c r="AX98" s="146"/>
       <c r="AY98" s="135"/>
       <c r="AZ98" s="135"/>
       <c r="BA98" s="135"/>
@@ -41303,10 +41575,10 @@
       <c r="AR99" s="133"/>
       <c r="AS99" s="133"/>
       <c r="AT99" s="133"/>
-      <c r="AU99" s="143"/>
-      <c r="AV99" s="143"/>
-      <c r="AW99" s="143"/>
-      <c r="AX99" s="143"/>
+      <c r="AU99" s="146"/>
+      <c r="AV99" s="146"/>
+      <c r="AW99" s="146"/>
+      <c r="AX99" s="146"/>
       <c r="AY99" s="135"/>
       <c r="AZ99" s="135"/>
       <c r="BA99" s="135"/>
@@ -41360,10 +41632,10 @@
       <c r="AR100" s="85"/>
       <c r="AS100" s="85"/>
       <c r="AT100" s="85"/>
-      <c r="AU100" s="140"/>
-      <c r="AV100" s="140"/>
-      <c r="AW100" s="140"/>
-      <c r="AX100" s="140"/>
+      <c r="AU100" s="143"/>
+      <c r="AV100" s="143"/>
+      <c r="AW100" s="143"/>
+      <c r="AX100" s="143"/>
       <c r="AY100" s="87"/>
       <c r="AZ100" s="87"/>
       <c r="BA100" s="87"/>
